--- a/SP/uscore-client.xlsx
+++ b/SP/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6271381-46EA-4B5A-AF5D-E1B928EB5302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F34314-A189-AD4B-BF93-9895015E571E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68805" yWindow="-10800" windowWidth="68805" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -61,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 not used -for algorithmic generation of combos</t>
@@ -86,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>User:</t>
         </r>
@@ -95,7 +96,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 not being used since enumerating for US Core</t>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="497">
   <si>
     <t>Element</t>
   </si>
@@ -1603,13 +1604,16 @@
   </si>
   <si>
     <t>us-core-client</t>
+  </si>
+  <si>
+    <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,14 +1663,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2071,17 +2075,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" customHeight="1">
+    <row r="3" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2105,13 +2109,13 @@
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="141" customHeight="1">
+    <row r="6" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2131,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="103.5" customHeight="1">
+    <row r="7" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2148,9 +2152,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2167,19 +2171,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -2208,7 +2212,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>402</v>
       </c>
@@ -2223,7 +2227,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>404</v>
       </c>
@@ -2238,7 +2242,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>405</v>
       </c>
@@ -2253,7 +2257,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -2268,7 +2272,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>407</v>
       </c>
@@ -2283,7 +2287,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>319</v>
       </c>
@@ -2298,7 +2302,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>410</v>
       </c>
@@ -2313,7 +2317,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>412</v>
       </c>
@@ -2328,7 +2332,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>414</v>
       </c>
@@ -2343,7 +2347,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>416</v>
       </c>
@@ -2358,7 +2362,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>417</v>
       </c>
@@ -2373,7 +2377,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>419</v>
       </c>
@@ -2388,7 +2392,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>420</v>
       </c>
@@ -2403,7 +2407,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>422</v>
       </c>
@@ -2418,7 +2422,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>208</v>
       </c>
@@ -2433,7 +2437,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>209</v>
       </c>
@@ -2448,7 +2452,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>427</v>
       </c>
@@ -2463,7 +2467,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>270</v>
       </c>
@@ -2478,7 +2482,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>430</v>
       </c>
@@ -2493,7 +2497,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>432</v>
       </c>
@@ -2508,7 +2512,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>434</v>
       </c>
@@ -2523,7 +2527,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
@@ -2538,7 +2542,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -2567,15 +2571,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="89" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2617,7 +2621,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2687,7 +2691,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2712,7 +2716,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2745,7 +2749,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2771,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2778,7 +2782,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2800,7 +2804,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2833,7 +2837,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
@@ -2866,7 +2870,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2887,28 +2891,28 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="17.25" customHeight="1" thickTop="1">
+    <row r="2" spans="1:24" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>268</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="17.25" customHeight="1">
+    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>284</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="17.25" customHeight="1">
+    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>151</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17.25" customHeight="1">
+    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>288</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17.25" customHeight="1">
+    <row r="7" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -3040,15 +3044,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17.25" customHeight="1">
+    <row r="8" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="17.25" customHeight="1">
+      <c r="C8" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3056,7 +3063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17.25" customHeight="1">
+    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>196</v>
       </c>
@@ -3064,7 +3071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="17.25" customHeight="1">
+    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17.25" customHeight="1">
+    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
@@ -3080,7 +3087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17.25" customHeight="1">
+    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>424</v>
       </c>
@@ -3091,7 +3098,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17.25" customHeight="1">
+    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>197</v>
       </c>
@@ -3105,7 +3112,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>200</v>
       </c>
@@ -3119,7 +3126,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.25" customHeight="1">
+    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="17.25" customHeight="1">
+    <row r="17" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>303</v>
       </c>
@@ -3135,7 +3142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="17.25" customHeight="1">
+    <row r="18" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -3143,7 +3150,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="17.25" customHeight="1">
+    <row r="19" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>310</v>
       </c>
@@ -3151,7 +3158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="17.25" customHeight="1">
+    <row r="20" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>313</v>
       </c>
@@ -3162,7 +3169,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="17.25" customHeight="1">
+    <row r="21" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>198</v>
       </c>
@@ -3170,28 +3177,28 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="17.25" customHeight="1">
+    <row r="22" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:21" ht="17.25" customHeight="1">
+    <row r="23" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:21" ht="17.25" customHeight="1">
+    <row r="24" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:21" ht="17.25" customHeight="1">
+    <row r="25" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="17.25" customHeight="1">
+    <row r="56" spans="20:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="17.25" customHeight="1">
+    <row r="59" spans="20:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
     <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3208,15 +3215,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -3233,7 +3240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120.75" thickBot="1">
+    <row r="2" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>442</v>
       </c>
@@ -3250,7 +3257,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -3266,15 +3273,15 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3404,7 +3411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -3469,7 +3476,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3534,7 +3541,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3599,7 +3606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3664,7 +3671,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -3729,7 +3736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3794,7 +3801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3859,7 +3866,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3940,34 +3947,34 @@
       <selection pane="bottomRight" activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="15.75" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4150,7 +4157,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="29.25">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4263,7 +4270,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4313,7 +4320,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4363,7 +4370,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4459,7 +4466,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="29.25">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4518,7 +4525,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4569,7 +4576,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4617,7 +4624,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4675,7 +4682,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4728,7 +4735,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4778,7 +4785,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4832,7 +4839,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="29.25">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4886,7 +4893,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4944,7 +4951,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4994,7 +5001,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5042,7 +5049,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5092,7 +5099,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5143,7 +5150,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5187,7 +5194,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5236,7 +5243,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5280,7 +5287,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5335,7 +5342,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5393,7 +5400,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5436,7 +5443,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5481,7 +5488,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5531,7 +5538,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5578,7 +5585,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5638,7 +5645,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5683,7 +5690,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5728,7 +5735,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5779,7 +5786,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1">
+    <row r="36" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5826,7 +5833,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5885,7 +5892,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1">
+    <row r="38" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5935,7 +5942,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="60">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6042,7 +6049,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1">
+    <row r="41" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6092,7 +6099,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="43.5">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6151,7 +6158,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1">
+    <row r="43" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1">
+    <row r="44" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6248,7 +6255,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6302,7 +6309,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6355,7 +6362,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1">
+    <row r="47" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6405,7 +6412,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6464,7 +6471,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1">
+    <row r="49" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6514,7 +6521,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1">
+    <row r="50" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6564,7 +6571,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6618,7 +6625,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1">
+    <row r="52" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6668,7 +6675,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1">
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6727,7 +6734,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6781,7 +6788,7 @@
         <v>SearchParameter-us-core-goal-start-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1">
+    <row r="55" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6831,7 +6838,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="43.5">
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="46" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6892,7 +6899,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6946,7 +6953,7 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1">
+    <row r="58" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6996,7 +7003,7 @@
         <v>SearchParameter-us-core-medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="43.5">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="46" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7056,7 +7063,7 @@
         <v>SearchParameter-us-core-medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7110,7 +7117,7 @@
         <v>SearchParameter-us-core-medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1">
+    <row r="61" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7160,7 +7167,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7218,7 +7225,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7272,7 +7279,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1">
+    <row r="64" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7322,7 +7329,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1">
+    <row r="65" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7372,7 +7379,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1">
+    <row r="66" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7422,7 +7429,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1">
+    <row r="67" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7472,7 +7479,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7526,7 +7533,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7585,7 +7592,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1">
+    <row r="70" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7635,7 +7642,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1">
+    <row r="71" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7682,7 +7689,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7736,7 +7743,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1">
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7795,7 +7802,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1">
+    <row r="74" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7845,7 +7852,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1">
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7904,7 +7911,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1">
+    <row r="76" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7954,7 +7961,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1">
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8013,7 +8020,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1">
+    <row r="78" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8055,7 +8062,7 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="1:28" ht="18">
+    <row r="79" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8109,7 +8116,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="18">
+    <row r="80" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8163,7 +8170,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="18">
+    <row r="81" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8217,7 +8224,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="18">
+    <row r="82" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8271,7 +8278,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="18">
+    <row r="83" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8325,7 +8332,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" s="1" customFormat="1" ht="18">
+    <row r="84" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8379,7 +8386,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" s="1" customFormat="1" ht="29.25">
+    <row r="85" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8433,7 +8440,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="18">
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8487,7 +8494,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="18">
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8541,7 +8548,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="18">
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8595,7 +8602,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="89" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8652,7 +8659,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8706,7 +8713,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8763,7 +8770,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="38.1" customHeight="1">
+    <row r="92" spans="1:28" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8823,12 +8830,12 @@
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
-  <sortState ref="A7:AA34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA34">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8841,28 +8848,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="I71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -8894,7 +8901,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8919,7 +8926,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8944,7 +8951,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8969,7 +8976,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8994,7 +9001,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9025,7 +9032,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9050,7 +9057,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9075,7 +9082,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9101,7 +9108,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9128,7 +9135,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9154,7 +9161,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9179,7 +9186,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9210,7 +9217,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9235,7 +9242,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9260,7 +9267,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9291,7 +9298,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9317,7 +9324,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9348,7 +9355,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9375,7 +9382,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9401,7 +9408,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9426,7 +9433,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9452,7 +9459,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9479,7 +9486,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9506,7 +9513,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9533,7 +9540,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9558,7 +9565,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9583,7 +9590,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9608,7 +9615,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9639,7 +9646,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9670,7 +9677,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9701,7 +9708,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9732,7 +9739,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9765,7 +9772,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9795,7 +9802,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9825,7 +9832,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1">
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9855,7 +9862,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9885,7 +9892,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1">
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9916,7 +9923,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1">
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9947,7 +9954,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1">
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9977,7 +9984,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10010,7 +10017,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -10040,7 +10047,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -10073,7 +10080,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1">
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -10103,7 +10110,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1">
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -10133,7 +10140,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1">
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -10163,7 +10170,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1">
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -10193,7 +10200,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1">
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -10223,7 +10230,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1">
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -10253,7 +10260,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1">
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -10284,7 +10291,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1">
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -10315,7 +10322,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and start-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1">
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -10345,7 +10352,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="1" customFormat="1">
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -10375,7 +10382,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1">
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -10406,7 +10413,7 @@
         <v>Fetches a bundle of all MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1">
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -10436,7 +10443,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1">
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -10467,7 +10474,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1">
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -10498,7 +10505,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1">
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -10529,7 +10536,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1">
+    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -10561,7 +10568,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1">
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -10594,7 +10601,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1">
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -10624,7 +10631,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1">
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -10657,7 +10664,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1">
+    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -10687,7 +10694,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1">
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -10717,7 +10724,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1">
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>58</v>
       </c>
@@ -10750,7 +10757,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1">
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>59</v>
       </c>
@@ -10764,7 +10771,7 @@
         <v>214</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>241</v>
@@ -10782,7 +10789,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1">
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>61</v>
       </c>
@@ -10814,7 +10821,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1">
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>62</v>
       </c>
@@ -10846,7 +10853,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="1" customFormat="1">
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -10879,7 +10886,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75">
+    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -10918,7 +10925,7 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1">
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>58</v>
       </c>
@@ -10951,7 +10958,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="1" customFormat="1">
+    <row r="72" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>59</v>
       </c>
@@ -10984,7 +10991,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1">
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>60</v>
       </c>
@@ -11017,7 +11024,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1">
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>61</v>
       </c>
@@ -11050,7 +11057,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1">
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>62</v>
       </c>
@@ -11080,7 +11087,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1">
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>39</v>
       </c>
@@ -11111,7 +11118,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="1" customFormat="1">
+    <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43</v>
       </c>
@@ -11140,7 +11147,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="1" customFormat="1">
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>40</v>
       </c>
@@ -11173,7 +11180,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42</v>
       </c>
@@ -11206,7 +11213,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1">
+    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>41</v>
       </c>
@@ -11236,7 +11243,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1">
+    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43</v>
       </c>
@@ -11267,7 +11274,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1">
+    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>41</v>
       </c>

--- a/SP/uscore-client.xlsx
+++ b/SP/uscore-client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E2C174-BC7E-B741-BEC3-4F873CEFD299}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D224FCF5-A38C-9F46-B1F6-EA05A964F5D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="740" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="794">
   <si>
     <t>Element</t>
   </si>
@@ -691,9 +691,6 @@
     <t>GET [base]/DiagnosticReport?patient=1137192&amp;status=completed</t>
   </si>
   <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;status=active</t>
-  </si>
-  <si>
     <t>support searching for all prescriptions for a patient for a given status (for example all active prescriptions)</t>
   </si>
   <si>
@@ -703,15 +700,9 @@
     <t>support searching for all medications for a patient for a given status (for example all active medications)</t>
   </si>
   <si>
-    <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport-lab</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observationresults</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport-note</t>
   </si>
   <si>
@@ -862,12 +853,6 @@
     <t>support searching for all prescriptions for a patient by date</t>
   </si>
   <si>
-    <t>GET [base]/Goal?patient=1137192&amp;date=ge2015-01-14&amp;date=le2019-01-14</t>
-  </si>
-  <si>
-    <t>GET [base]/MeidcationRequest?patient=1137192&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>support searching for all medications for a patient by date</t>
   </si>
   <si>
@@ -877,9 +862,6 @@
     <t>patient,effective</t>
   </si>
   <si>
-    <t>GET [base]/MedicationStatement?patient=1137192&amp;effective=ge2019</t>
-  </si>
-  <si>
     <t>Fetches a bundle of all MedicationRequest resources for the specified patient and status</t>
   </si>
   <si>
@@ -919,15 +901,9 @@
     <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan</t>
   </si>
   <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active</t>
   </si>
   <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan` and date</t>
   </si>
   <si>
@@ -1180,12 +1156,6 @@
     <t>lifecycle-status</t>
   </si>
   <si>
-    <t>start-date</t>
-  </si>
-  <si>
-    <t>patient,start-date</t>
-  </si>
-  <si>
     <t>!CarePlan</t>
   </si>
   <si>
@@ -1339,9 +1309,6 @@
     <t>US Core Organization Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pediatric-weight</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</t>
   </si>
   <si>
@@ -1381,9 +1348,6 @@
     <t>US Core Location Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pediatric-bmi</t>
-  </si>
-  <si>
     <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
   </si>
   <si>
@@ -1396,12 +1360,6 @@
     <t>US Core Device Profile</t>
   </si>
   <si>
-    <t>US Core Pediatric Weight Observation Profile</t>
-  </si>
-  <si>
-    <t>US Core Pediatric BMI Observation Profile</t>
-  </si>
-  <si>
     <t>US Core AllergyIntolerance Profile</t>
   </si>
   <si>
@@ -1505,10 +1463,6 @@
   </si>
   <si>
     <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>A server **SHALL** be capable of responding to a $docref operation and  capable of returning at least a reference to a generated CCD document, if available. **MAY** provide references to other generated and existing document types as well. If a context date range is supplied the server ** SHOULD**  provide references to any document that falls within the date range If no date range is supplied, then the server **SHALL** provide references to last or current encounter.  **SHOULD** document what resources, if any, are returned as included resources
-`GET [base]/DocumentReference/$docref?patient=[id]`</t>
   </si>
   <si>
     <t>The MedicationStatement and MedicationRequest resources can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationStatement or a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
@@ -1555,18 +1509,6 @@
 </t>
   </si>
   <si>
-    <t>SHOULD_modifier</t>
-  </si>
-  <si>
-    <t>SHOULD_comparator</t>
-  </si>
-  <si>
-    <t>SHOULD_chain</t>
-  </si>
-  <si>
-    <t>SHOULD_include</t>
-  </si>
-  <si>
     <t>us-core-client</t>
   </si>
   <si>
@@ -1576,13 +1518,983 @@
     <t>1. See the [General Security Considerations] section for requirements and recommendations.</t>
   </si>
   <si>
-    <t>clinical-status=http://terminology.hl7.org/CodeSystem/condition-clinical|active,http://terminology.hl7.org/CodeSystem/condition-clinical|recurrence,http://terminology.hl7.org/CodeSystem/condition-clinical|remission</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
   </si>
   <si>
     <t>US Core Laboratory Result Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core.r4-4.0.0</t>
+  </si>
+  <si>
+    <t>shall_modifier</t>
+  </si>
+  <si>
+    <t>shall_comparator</t>
+  </si>
+  <si>
+    <t>shall_chain</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example category search</t>
+  </si>
+  <si>
+    <t>!EXAMPLE CATEGORY SEARCH.category</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!example category search-category.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</t>
+  </si>
+  <si>
+    <t>!EXAMPLE CODE SEARCH.code</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!example code search-code.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example date search</t>
+  </si>
+  <si>
+    <t>!EXAMPLE DATE SEARCH.date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!example date search-date.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example patient search</t>
+  </si>
+  <si>
+    <t>!EXAMPLE PATIENT SEARCH.patient</t>
+  </si>
+  <si>
+    <t>support searching for all !example patient searchs for a patient</t>
+  </si>
+  <si>
+    <t>GET [base]/!EXAMPLE PATIENT SEARCH?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !EXAMPLE PATIENT SEARCH resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!example patient search-patient.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example status search</t>
+  </si>
+  <si>
+    <t>!EXAMPLE STATUS SEARCH.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!example status search-status.html</t>
+  </si>
+  <si>
+    <t>!Patient.address</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!patient-address.html</t>
+  </si>
+  <si>
+    <t>!Patient.telecom</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!patient-telecom.html</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.clinical-status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-allergyintolerance-clinical-status.html</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient</t>
+  </si>
+  <si>
+    <t>GET [base]/AllergyIntolerance?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-allergyintolerance-patient.html</t>
+  </si>
+  <si>
+    <t>Condition.category</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-condition-category.html</t>
+  </si>
+  <si>
+    <t>Condition.clinical-status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-condition-clinical-status.html</t>
+  </si>
+  <si>
+    <t>Condition.patient</t>
+  </si>
+  <si>
+    <t>GET [base]/Condition?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Condition resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-condition-patient.html</t>
+  </si>
+  <si>
+    <t>Encounter._id</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-encounter-id.html</t>
+  </si>
+  <si>
+    <t>Encounter.class</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-encounter-class.html</t>
+  </si>
+  <si>
+    <t>Encounter.date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-encounter-date.html</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t>Fetches a bundle containing any Encounter resources matching the identifier</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-encounter-identifier.html</t>
+  </si>
+  <si>
+    <t>Encounter.patient</t>
+  </si>
+  <si>
+    <t>GET [base]/Encounter?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Encounter resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-encounter-patient.html</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-encounter-status.html</t>
+  </si>
+  <si>
+    <t>Encounter.type</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-encounter-type.html</t>
+  </si>
+  <si>
+    <t>Patient._id</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-patient-id.html</t>
+  </si>
+  <si>
+    <t>Patient.birthdate</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-patient-birthdate.html</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-patient-family.html</t>
+  </si>
+  <si>
+    <t>Patient.gender</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-patient-gender.html</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-patient-given.html</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t>Fetches a bundle containing any Patient resources matching the identifier</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-patient-identifier.html</t>
+  </si>
+  <si>
+    <t>Patient.name</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Patient resources matching the name</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-patient-name.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!questionnaire-_id.html</t>
+  </si>
+  <si>
+    <t>!Questionnaire.context-type-value</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!questionnaire-context-type-value.html</t>
+  </si>
+  <si>
+    <t>!Questionnaire.publisher</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!questionnaire-publisher.html</t>
+  </si>
+  <si>
+    <t>!Questionnaire.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!questionnaire-status.html</t>
+  </si>
+  <si>
+    <t>!Questionnaire.title</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!questionnaire-title.html</t>
+  </si>
+  <si>
+    <t>!Questionnaire.url</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!questionnaire-url.html</t>
+  </si>
+  <si>
+    <t>!Questionnaire.version</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!questionnaire-version.html</t>
+  </si>
+  <si>
+    <t>Condition.onset-date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-condition-onset-date.html</t>
+  </si>
+  <si>
+    <t>Condition.code</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-condition-code.html</t>
+  </si>
+  <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t>support searching for all immunizations for a patient</t>
+  </si>
+  <si>
+    <t>GET [base]/Immunization?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Immunization resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-immunization-patient.html</t>
+  </si>
+  <si>
+    <t>Immunization.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-immunization-status.html</t>
+  </si>
+  <si>
+    <t>Immunization.date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-immunization-date.html</t>
+  </si>
+  <si>
+    <t>DocumentReference.id</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-documentreference-_id.html</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-documentreference-status.html</t>
+  </si>
+  <si>
+    <t>DocumentReference.patient</t>
+  </si>
+  <si>
+    <t>support searching for all documentreferences for a patient</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-documentreference-patient.html</t>
+  </si>
+  <si>
+    <t>DocumentReference.category</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-documentreference-category.html</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-documentreference-type.html</t>
+  </si>
+  <si>
+    <t>DocumentReference.date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-documentreference-date.html</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-documentreference-period.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-diagnosticreport-status.html</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.patient</t>
+  </si>
+  <si>
+    <t>support searching for all diagnosticreports for a patient</t>
+  </si>
+  <si>
+    <t>GET [base]/DiagnosticReport?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DiagnosticReport resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-diagnosticreport-patient.html</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-diagnosticreport-category.html</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-diagnosticreport-code.html</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-diagnosticreport-date.html</t>
+  </si>
+  <si>
+    <t>Goal.lifecycle-status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-goal-lifecycle-status.html</t>
+  </si>
+  <si>
+    <t>Goal.patient</t>
+  </si>
+  <si>
+    <t>support searching for all goals for a patient</t>
+  </si>
+  <si>
+    <t>GET [base]/Goal?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Goal resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-goal-patient.html</t>
+  </si>
+  <si>
+    <t>target-date</t>
+  </si>
+  <si>
+    <t>Goal.target-date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-goal-target-date.html</t>
+  </si>
+  <si>
+    <t>MedicationRequest.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-medicationrequest-status.html</t>
+  </si>
+  <si>
+    <t>MedicationRequest.patient</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-medicationrequest-patient.html</t>
+  </si>
+  <si>
+    <t>MedicationRequest.authoredon</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-medicationrequest-authoredon.html</t>
+  </si>
+  <si>
+    <t>MedicationStatement.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-medicationstatement-status.html</t>
+  </si>
+  <si>
+    <t>MedicationStatement.patient</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-medicationstatement-patient.html</t>
+  </si>
+  <si>
+    <t>MedicationStatement.effective</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-medicationstatement-effective.html</t>
+  </si>
+  <si>
+    <t>Procedure.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-procedure-status.html</t>
+  </si>
+  <si>
+    <t>Procedure.patient</t>
+  </si>
+  <si>
+    <t>support searching for all procedures for a patient</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Procedure resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-procedure-patient.html</t>
+  </si>
+  <si>
+    <t>Procedure.date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-procedure-date.html</t>
+  </si>
+  <si>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-procedure-code.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-observation-status.html</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-observation-category.html</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-observation-code.html</t>
+  </si>
+  <si>
+    <t>Observation.date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-observation-date.html</t>
+  </si>
+  <si>
+    <t>Observation.patient</t>
+  </si>
+  <si>
+    <t>support searching for all observations for a patient</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-observation-patient.html</t>
+  </si>
+  <si>
+    <t>CarePlan.category</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-careplan-category.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</t>
+  </si>
+  <si>
+    <t>!CarePlan.code</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!careplan-code.html</t>
+  </si>
+  <si>
+    <t>CarePlan.date</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-careplan-date.html</t>
+  </si>
+  <si>
+    <t>CarePlan.patient</t>
+  </si>
+  <si>
+    <t>support searching for all careplans for a patient</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CarePlan resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-careplan-patient.html</t>
+  </si>
+  <si>
+    <t>CarePlan.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-careplan-status.html</t>
+  </si>
+  <si>
+    <t>CareTeam.patient</t>
+  </si>
+  <si>
+    <t>support searching for all careteams for a patient</t>
+  </si>
+  <si>
+    <t>GET [base]/CareTeam?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CareTeam resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-careteam-patient.html</t>
+  </si>
+  <si>
+    <t>CareTeam.status</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-careteam-status.html</t>
+  </si>
+  <si>
+    <t>Device.patient</t>
+  </si>
+  <si>
+    <t>support searching for all devices for a patient, including implantable devices</t>
+  </si>
+  <si>
+    <t>GET [base]/Device?patient=1137192</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Device resources for the specified patient</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-device-patient.html</t>
+  </si>
+  <si>
+    <t>Device.type</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-device-type.html</t>
+  </si>
+  <si>
+    <t>Location.name</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Location resources that match the name</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-location-name.html</t>
+  </si>
+  <si>
+    <t>Location.address</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Location resources that match the address string</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-location-address.html</t>
+  </si>
+  <si>
+    <t>Location.address-city</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Location resources for the city</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-location-address-city.html</t>
+  </si>
+  <si>
+    <t>Location.address-state</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Location resources for the state</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-location-address-state.html</t>
+  </si>
+  <si>
+    <t>Location.address-postalcode</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Location resources for the ZIP code</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-location-address-postalcode.html</t>
+  </si>
+  <si>
+    <t>Organization.name</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Organization resources that match the name</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-organization-name.html</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Organization resources that match the address string</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-organization-address.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</t>
+  </si>
+  <si>
+    <t>!Organization.address-city</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Organization resources for the city</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!organization-address-city.html</t>
+  </si>
+  <si>
+    <t>!Organization.adress-state</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Organization resources for the state</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!organization-adress-state.html</t>
+  </si>
+  <si>
+    <t>!Organization.address-postalcode</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Organization resources for the ZIP code</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-!organization-address-postalcode.html</t>
+  </si>
+  <si>
+    <t>Practitioner.name</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Practitioner resources matching the name</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-practitioner-name.html</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier</t>
+  </si>
+  <si>
+    <t>Fetches a bundle containing any Practitioner resources matching the identifier</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-practitioner-identifier.html</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty</t>
+  </si>
+  <si>
+    <t>Fetches a bundle containing  PractitionerRole resources matching the specialty</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-practitionerrole-specialty.html</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner</t>
+  </si>
+  <si>
+    <t>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-practitionerrole-practitioner.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and date</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and date and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Encounter resources matching the specified class and patient</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and status and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified class and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Encounter resources matching the specified date and patient</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified date and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Encounter resources matching the specified patient and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Encounter resources matching the specified patient and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Encounter resources matching the specified status and type</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Questionnaire resources matching the specified status and version</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Questionnaire resources matching the specified title and version</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Patient resources matching the specified birthdate and family</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Patient resources matching the specified birthdate and name</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Patient resources matching the specified family and gender</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Patient resources matching the specified gender and name</t>
+  </si>
+  <si>
+    <t>clinical-status=http://terminology.hl7.org/CodeSystem/condition-clinical|active,http://terminology.hl7.org/CodeSystem/condition-clinical|recurrance,http://terminology.hl7.org/CodeSystem/condition-clinical|remission</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Immunization resources for the specified patient and date</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Immunization resources for the specified patient and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</t>
+  </si>
+  <si>
+    <t>patient,target-date</t>
+  </si>
+  <si>
+    <t>GET [base]/Goal?patient=1137192&amp;target-date=ge2015-01-14&amp;target-date=le2019-01-14</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Goal resources for the specified patient and target-date</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;status=active&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;effective=ge2019~GET [base]/MedicationStatement?patient=1137192&amp;effective=ge2019&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active~GET [base]/MedicationStatement?patient=1137192&amp;status=active&amp;_include=MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationStatement resources for the specified patient and status</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationStatement?patient=1137192&amp;date=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;date=ge2019&amp;_include=MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Procedure resources for the specified patient and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Procedure resources for the specified patient and date</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !Observation resources for the specified patient and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018&amp;date=le2018</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and observation code.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and category and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Weight  for Height Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
+  </si>
+  <si>
+    <t>US Core Pediatric BMI for Age Observation Profile</t>
+  </si>
+  <si>
+    <t>A client **SHOULD** be capable of transacting a $docref operation and capable of receiving at least a reference to a generated CCD document, and  **MAY** be able to receive other document types, if available.   **SHOULD**  be capable of receiving documents as included resources in response to the operation.
+`GET [base]/DocumentReference/$docref?patient=[id]`</t>
   </si>
 </sst>
 </file>
@@ -2051,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2074,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2082,21 +2994,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,7 +3018,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2112,7 +3026,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -2147,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2160,10 +3074,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
@@ -2174,26 +3088,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B2" t="s">
-        <v>392</v>
+      <c r="A2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B3" t="s">
-        <v>394</v>
+      <c r="A3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>73</v>
@@ -2205,31 +3119,31 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2238,7 +3152,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>73</v>
@@ -2250,10 +3164,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>73</v>
@@ -2265,10 +3179,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>73</v>
@@ -2280,10 +3194,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>73</v>
@@ -2295,10 +3209,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>73</v>
@@ -2310,10 +3224,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>73</v>
@@ -2325,10 +3239,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>73</v>
@@ -2340,25 +3254,25 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>410</v>
+        <v>789</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>429</v>
+        <v>790</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>73</v>
@@ -2370,10 +3284,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>73</v>
@@ -2385,25 +3299,25 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>73</v>
@@ -2415,10 +3329,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>73</v>
@@ -2430,40 +3344,40 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>73</v>
@@ -2475,25 +3389,25 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>424</v>
+        <v>791</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>430</v>
+        <v>792</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>73</v>
@@ -2505,10 +3419,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>73</v>
@@ -2523,7 +3437,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>73</v>
@@ -2579,61 +3493,61 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="R1" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="X1" t="s">
         <v>19</v>
@@ -2656,7 +3570,7 @@
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>73</v>
@@ -2664,7 +3578,7 @@
     </row>
     <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>73</v>
@@ -2683,7 +3597,7 @@
     </row>
     <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>73</v>
@@ -2705,7 +3619,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2734,7 +3648,7 @@
     </row>
     <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>73</v>
@@ -2742,13 +3656,13 @@
     </row>
     <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2759,10 +3673,10 @@
         <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,10 +3687,10 @@
         <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2789,7 +3703,7 @@
     </row>
     <row r="17" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>73</v>
@@ -2805,7 +3719,7 @@
     </row>
     <row r="19" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>73</v>
@@ -2813,13 +3727,13 @@
     </row>
     <row r="20" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2864,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2893,12 +3807,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>186</v>
@@ -2907,7 +3821,7 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>466</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2939,64 +3853,64 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -3594,10 +4508,10 @@
   <dimension ref="A1:AB93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="T19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3671,28 +4585,28 @@
         <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>483</v>
+        <v>353</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>52</v>
@@ -3718,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>145</v>
@@ -3729,9 +4643,8 @@
       <c r="E2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F4" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example category search</v>
+      <c r="F2" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>57</v>
@@ -3742,9 +4655,8 @@
       <c r="I2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="1" t="str">
-        <f>B2&amp;"."&amp;C2</f>
-        <v>!EXAMPLE CATEGORY SEARCH.category</v>
+      <c r="J2" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -3758,9 +4670,8 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
-      <c r="AB2" s="1" t="str">
-        <f t="shared" ref="AB2:AB4" si="1">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
-        <v>SearchParameter-us-core-!example category search-category.html</v>
+      <c r="AB2" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3768,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -3779,9 +4690,8 @@
       <c r="E3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</v>
+      <c r="F3" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>57</v>
@@ -3792,9 +4702,8 @@
       <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f>B3&amp;"."&amp;C3</f>
-        <v>!EXAMPLE CODE SEARCH.code</v>
+      <c r="J3" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>57</v>
@@ -3805,9 +4714,8 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
-      <c r="AB3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>SearchParameter-us-core-!example code search-code.html</v>
+      <c r="AB3" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3815,7 +4723,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>83</v>
@@ -3826,9 +4734,8 @@
       <c r="E4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example date search</v>
+      <c r="F4" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>57</v>
@@ -3839,9 +4746,8 @@
       <c r="I4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="1" t="str">
-        <f>B4&amp;"."&amp;C4</f>
-        <v>!EXAMPLE DATE SEARCH.date</v>
+      <c r="J4" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>57</v>
@@ -3859,9 +4765,8 @@
         <v>99</v>
       </c>
       <c r="AA4" s="12"/>
-      <c r="AB4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>SearchParameter-us-core-!example date search-date.html</v>
+      <c r="AB4" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
@@ -3880,9 +4785,8 @@
       <c r="E5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B5)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example patient search</v>
+      <c r="F5" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>57</v>
@@ -3893,9 +4797,8 @@
       <c r="I5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="1" t="str">
-        <f>B5&amp;"."&amp;C5</f>
-        <v>!EXAMPLE PATIENT SEARCH.patient</v>
+      <c r="J5" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>57</v>
@@ -3906,21 +4809,17 @@
       <c r="X5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B5)&amp;"s for a patient"</f>
-        <v>support searching for all !example patient searchs for a patient</v>
-      </c>
-      <c r="Z5" s="5" t="str">
-        <f>"GET [base]/"&amp;B5&amp;"?patient=1137192"</f>
-        <v>GET [base]/!EXAMPLE PATIENT SEARCH?patient=1137192</v>
-      </c>
-      <c r="AA5" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B5&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all !EXAMPLE PATIENT SEARCH resources for the specified patient</v>
-      </c>
-      <c r="AB5" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B5)&amp;"-"&amp;C5&amp;".html")</f>
-        <v>SearchParameter-us-core-!example patient search-patient.html</v>
+      <c r="Y5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3928,7 +4827,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>63</v>
@@ -3939,9 +4838,8 @@
       <c r="E6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" ref="F6" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B6)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example status search</v>
+      <c r="F6" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>57</v>
@@ -3952,9 +4850,8 @@
       <c r="I6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6" si="3">B6&amp;"."&amp;C6</f>
-        <v>!EXAMPLE STATUS SEARCH.status</v>
+      <c r="J6" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>57</v>
@@ -3968,9 +4865,8 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="1" t="str">
-        <f t="shared" ref="AB6" si="4">"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
-        <v>SearchParameter-us-core-!example status search-status.html</v>
+      <c r="AB6" s="1" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4001,9 +4897,8 @@
       <c r="I7" t="s">
         <v>66</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" ref="J7:J22" si="5">B7&amp;"."&amp;C7</f>
-        <v>!Patient.address</v>
+      <c r="J7" t="s">
+        <v>492</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -4012,15 +4907,14 @@
         <v>57</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>91</v>
       </c>
       <c r="AA7" s="12"/>
-      <c r="AB7" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B7)&amp;"-"&amp;C7&amp;".html")</f>
-        <v>SearchParameter-us-core-!patient-address.html</v>
+      <c r="AB7" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -4051,9 +4945,8 @@
       <c r="I8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="5"/>
-        <v>!Patient.telecom</v>
+      <c r="J8" t="s">
+        <v>494</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>57</v>
@@ -4062,15 +4955,14 @@
         <v>57</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>93</v>
       </c>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="1" t="str">
-        <f t="shared" ref="AB8:AB39" si="6">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
-        <v>SearchParameter-us-core-!patient-telecom.html</v>
+      <c r="AB8" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -4101,9 +4993,8 @@
       <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="J9" t="str">
-        <f t="shared" si="5"/>
-        <v>AllergyIntolerance.clinical-status</v>
+      <c r="J9" t="s">
+        <v>496</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>57</v>
@@ -4114,9 +5005,8 @@
       <c r="X9"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="12"/>
-      <c r="AB9" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
+      <c r="AB9" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -4130,7 +5020,7 @@
         <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4147,9 +5037,8 @@
       <c r="I10" t="s">
         <v>95</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" si="5"/>
-        <v>AllergyIntolerance.patient</v>
+      <c r="J10" t="s">
+        <v>498</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>57</v>
@@ -4165,17 +5054,14 @@
       <c r="Y10" t="s">
         <v>77</v>
       </c>
-      <c r="Z10" s="5" t="str">
-        <f>"GET [base]/"&amp;B10&amp;"?patient=1137192"</f>
-        <v>GET [base]/AllergyIntolerance?patient=1137192</v>
-      </c>
-      <c r="AA10" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B10&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all AllergyIntolerance resources for the specified patient</v>
-      </c>
-      <c r="AB10" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B10)&amp;"-"&amp;SUBSTITUTE(C10,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
+      <c r="Z10" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -4194,9 +5080,8 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" ref="F11:F29" si="7">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B11)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      <c r="F11" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
@@ -4207,9 +5092,8 @@
       <c r="I11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="5"/>
-        <v>Condition.category</v>
+      <c r="J11" t="s">
+        <v>502</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>57</v>
@@ -4224,9 +5108,8 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-condition-category.html</v>
+      <c r="AB11" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -4245,9 +5128,8 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      <c r="F12" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
@@ -4258,9 +5140,8 @@
       <c r="I12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="5"/>
-        <v>Condition.clinical-status</v>
+      <c r="J12" t="s">
+        <v>504</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>57</v>
@@ -4272,9 +5153,8 @@
         <v>99</v>
       </c>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-condition-clinical-status.html</v>
+      <c r="AB12" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -4288,14 +5168,13 @@
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      <c r="F13" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G13" t="s">
         <v>57</v>
@@ -4306,9 +5185,8 @@
       <c r="I13" t="s">
         <v>95</v>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" si="5"/>
-        <v>Condition.patient</v>
+      <c r="J13" t="s">
+        <v>506</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>57</v>
@@ -4322,17 +5200,14 @@
       <c r="Y13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Z13" s="5" t="str">
-        <f>"GET [base]/"&amp;B13&amp;"?patient=1137192"</f>
-        <v>GET [base]/Condition?patient=1137192</v>
-      </c>
-      <c r="AA13" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B13&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Condition resources for the specified patient</v>
-      </c>
-      <c r="AB13" s="1" t="str">
-        <f t="shared" ref="AB13:AB14" si="8">"SearchParameter-us-core-"&amp;LOWER((B13)&amp;"-"&amp;SUBSTITUTE(C13,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-condition-patient.html</v>
+      <c r="Z13" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4346,14 +5221,13 @@
         <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="F14" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -4364,9 +5238,8 @@
       <c r="I14" t="s">
         <v>58</v>
       </c>
-      <c r="J14" t="str">
-        <f t="shared" si="5"/>
-        <v>Encounter._id</v>
+      <c r="J14" t="s">
+        <v>510</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>57</v>
@@ -4375,17 +5248,16 @@
         <v>57</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AB14" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>SearchParameter-us-core-encounter-id.html</v>
+      <c r="AB14" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4404,9 +5276,8 @@
       <c r="E15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="F15" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>57</v>
@@ -4417,9 +5288,8 @@
       <c r="I15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Encounter.class</v>
+      <c r="J15" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>57</v>
@@ -4433,9 +5303,8 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
-      <c r="AB15" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-encounter-class.html</v>
+      <c r="AB15" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4454,9 +5323,8 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="F16" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="G16" t="s">
         <v>57</v>
@@ -4467,9 +5335,8 @@
       <c r="I16" t="s">
         <v>83</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="5"/>
-        <v>Encounter.date</v>
+      <c r="J16" t="s">
+        <v>514</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>57</v>
@@ -4487,9 +5354,8 @@
         <v>99</v>
       </c>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-encounter-date.html</v>
+      <c r="AB16" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -4508,9 +5374,8 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="F17" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -4521,9 +5386,8 @@
       <c r="I17" t="s">
         <v>58</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" si="5"/>
-        <v>Encounter.identifier</v>
+      <c r="J17" t="s">
+        <v>516</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>57</v>
@@ -4532,18 +5396,16 @@
         <v>57</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Z17" t="s">
         <v>166</v>
       </c>
-      <c r="AA17" s="12" t="str">
-        <f>"Fetches a bundle containing any "&amp;B17&amp;" resources matching the identifier"</f>
-        <v>Fetches a bundle containing any Encounter resources matching the identifier</v>
-      </c>
-      <c r="AB17" s="1" t="str">
-        <f t="shared" ref="AB17:AB18" si="9">"SearchParameter-us-core-"&amp;LOWER((B17)&amp;"-"&amp;SUBSTITUTE(C17,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-encounter-identifier.html</v>
+      <c r="AA17" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -4557,14 +5419,13 @@
         <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="F18" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="G18" t="s">
         <v>57</v>
@@ -4575,9 +5436,8 @@
       <c r="I18" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Encounter.patient</v>
+      <c r="J18" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>57</v>
@@ -4591,17 +5451,14 @@
       <c r="Y18" t="s">
         <v>97</v>
       </c>
-      <c r="Z18" s="5" t="str">
-        <f>"GET [base]/"&amp;B18&amp;"?patient=1137192"</f>
-        <v>GET [base]/Encounter?patient=1137192</v>
-      </c>
-      <c r="AA18" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B18&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Encounter resources for the specified patient</v>
-      </c>
-      <c r="AB18" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>SearchParameter-us-core-encounter-patient.html</v>
+      <c r="Z18" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
@@ -4620,9 +5477,8 @@
       <c r="E19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="F19" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="G19" t="s">
         <v>57</v>
@@ -4633,9 +5489,8 @@
       <c r="I19" t="s">
         <v>58</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="5"/>
-        <v>Encounter.status</v>
+      <c r="J19" t="s">
+        <v>523</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>57</v>
@@ -4649,9 +5504,8 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="12"/>
-      <c r="AB19" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-encounter-status.html</v>
+      <c r="AB19" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
@@ -4670,9 +5524,8 @@
       <c r="E20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="F20" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="G20" t="s">
         <v>57</v>
@@ -4683,9 +5536,8 @@
       <c r="I20" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Encounter.type</v>
+      <c r="J20" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>57</v>
@@ -4697,9 +5549,8 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-encounter-type.html</v>
+      <c r="AB20" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
@@ -4713,14 +5564,13 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="F21" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G21" t="s">
         <v>57</v>
@@ -4731,9 +5581,8 @@
       <c r="I21" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Patient._id</v>
+      <c r="J21" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>57</v>
@@ -4745,11 +5594,10 @@
         <v>79</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB21" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-patient-id.html</v>
+        <v>374</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
@@ -4768,9 +5616,8 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="F22" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G22" t="s">
         <v>57</v>
@@ -4781,9 +5628,8 @@
       <c r="I22" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Patient.birthdate</v>
+      <c r="J22" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>57</v>
@@ -4798,9 +5644,8 @@
         <v>84</v>
       </c>
       <c r="Z22"/>
-      <c r="AB22" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-patient-birthdate.html</v>
+      <c r="AB22" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
@@ -4819,9 +5664,8 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="F23" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G23" t="s">
         <v>57</v>
@@ -4842,9 +5686,8 @@
         <v>57</v>
       </c>
       <c r="Y23"/>
-      <c r="AB23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-patient-family.html</v>
+      <c r="AB23" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -4863,9 +5706,8 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="F24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G24" t="s">
         <v>57</v>
@@ -4876,9 +5718,8 @@
       <c r="I24" t="s">
         <v>58</v>
       </c>
-      <c r="J24" t="str">
-        <f>B24&amp;"."&amp;C24</f>
-        <v>Patient.gender</v>
+      <c r="J24" t="s">
+        <v>532</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>57</v>
@@ -4891,9 +5732,8 @@
       </c>
       <c r="Y24"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-patient-gender.html</v>
+      <c r="AB24" s="1" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,9 +5752,8 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G25" t="s">
         <v>57</v>
@@ -4935,9 +5774,8 @@
         <v>57</v>
       </c>
       <c r="AA25" s="12"/>
-      <c r="AB25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-patient-given.html</v>
+      <c r="AB25" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4951,14 +5789,13 @@
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G26" t="s">
         <v>57</v>
@@ -4969,9 +5806,8 @@
       <c r="I26" t="s">
         <v>58</v>
       </c>
-      <c r="J26" t="str">
-        <f>B26&amp;"."&amp;C26</f>
-        <v>Patient.identifier</v>
+      <c r="J26" t="s">
+        <v>535</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>57</v>
@@ -4981,18 +5817,16 @@
       </c>
       <c r="X26"/>
       <c r="Y26" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AA26" s="12" t="str">
-        <f>"Fetches a bundle containing any "&amp;B26&amp;" resources matching the identifier"</f>
-        <v>Fetches a bundle containing any Patient resources matching the identifier</v>
-      </c>
-      <c r="AB26" s="1" t="str">
-        <f t="shared" ref="AB26:AB27" si="10">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-patient-identifier.html</v>
+      <c r="AA26" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5006,14 +5840,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G27" t="s">
         <v>57</v>
@@ -5024,9 +5857,8 @@
       <c r="I27" t="s">
         <v>66</v>
       </c>
-      <c r="J27" t="str">
-        <f>B27&amp;"."&amp;C27</f>
-        <v>Patient.name</v>
+      <c r="J27" t="s">
+        <v>538</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>57</v>
@@ -5044,13 +5876,11 @@
       <c r="Z27" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AA27" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the name"</f>
-        <v>Fetches a bundle of all Patient resources matching the name</v>
-      </c>
-      <c r="AB27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>SearchParameter-us-core-patient-name.html</v>
+      <c r="AA27" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
@@ -5069,9 +5899,8 @@
       <c r="E28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="F28" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="G28" t="s">
         <v>57</v>
@@ -5091,9 +5920,8 @@
       <c r="M28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB28" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-!questionnaire-_id.html</v>
+      <c r="AB28" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5112,9 +5940,8 @@
       <c r="E29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="F29" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="G29" t="s">
         <v>60</v>
@@ -5125,9 +5952,8 @@
       <c r="I29" t="s">
         <v>75</v>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" ref="J29:J39" si="11">B29&amp;"."&amp;C29</f>
-        <v>!Questionnaire.context-type-value</v>
+      <c r="J29" t="s">
+        <v>543</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>57</v>
@@ -5136,9 +5962,8 @@
         <v>57</v>
       </c>
       <c r="X29"/>
-      <c r="AB29" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
+      <c r="AB29" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5157,9 +5982,8 @@
       <c r="E30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B30)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="F30" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="G30" t="s">
         <v>57</v>
@@ -5170,9 +5994,8 @@
       <c r="I30" t="s">
         <v>66</v>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" si="11"/>
-        <v>!Questionnaire.publisher</v>
+      <c r="J30" t="s">
+        <v>545</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>57</v>
@@ -5186,9 +6009,8 @@
       <c r="X30" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
+      <c r="AB30" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5207,9 +6029,8 @@
       <c r="E31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <f t="shared" ref="F31:F40" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B31)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="F31" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="G31" t="s">
         <v>57</v>
@@ -5220,9 +6041,8 @@
       <c r="I31" t="s">
         <v>58</v>
       </c>
-      <c r="J31" t="str">
-        <f t="shared" si="11"/>
-        <v>!Questionnaire.status</v>
+      <c r="J31" t="s">
+        <v>547</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>57</v>
@@ -5233,9 +6053,8 @@
       <c r="X31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB31" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-!questionnaire-status.html</v>
+      <c r="AB31" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5254,9 +6073,8 @@
       <c r="E32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="F32" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>57</v>
@@ -5267,9 +6085,8 @@
       <c r="I32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>!Questionnaire.title</v>
+      <c r="J32" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>57</v>
@@ -5293,9 +6110,8 @@
         <v>69</v>
       </c>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-!questionnaire-title.html</v>
+      <c r="AB32" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5314,9 +6130,8 @@
       <c r="E33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="F33" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>57</v>
@@ -5327,9 +6142,8 @@
       <c r="I33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>!Questionnaire.url</v>
+      <c r="J33" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>57</v>
@@ -5338,9 +6152,8 @@
         <v>57</v>
       </c>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-!questionnaire-url.html</v>
+      <c r="AB33" s="1" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5359,9 +6172,8 @@
       <c r="E34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="F34" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>57</v>
@@ -5372,9 +6184,8 @@
       <c r="I34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>!Questionnaire.version</v>
+      <c r="J34" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>57</v>
@@ -5383,9 +6194,8 @@
         <v>57</v>
       </c>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-!questionnaire-version.html</v>
+      <c r="AB34" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5404,9 +6214,8 @@
       <c r="E35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      <c r="F35" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>57</v>
@@ -5417,9 +6226,8 @@
       <c r="I35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J35" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Condition.onset-date</v>
+      <c r="J35" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>57</v>
@@ -5434,9 +6242,8 @@
         <v>98</v>
       </c>
       <c r="AA35" s="12"/>
-      <c r="AB35" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-condition-onset-date.html</v>
+      <c r="AB35" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5455,9 +6262,8 @@
       <c r="E36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      <c r="F36" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>57</v>
@@ -5468,9 +6274,8 @@
       <c r="I36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Condition.code</v>
+      <c r="J36" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>57</v>
@@ -5481,9 +6286,8 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-condition-code.html</v>
+      <c r="AB36" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5497,14 +6301,13 @@
         <v>94</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      <c r="F37" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>57</v>
@@ -5515,9 +6318,8 @@
       <c r="I37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Immunization.patient</v>
+      <c r="J37" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>57</v>
@@ -5528,21 +6330,17 @@
       <c r="X37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y37" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B37)&amp;"s for a patient"</f>
-        <v>support searching for all immunizations for a patient</v>
-      </c>
-      <c r="Z37" s="5" t="str">
-        <f>"GET [base]/"&amp;B37&amp;"?patient=1137192"</f>
-        <v>GET [base]/Immunization?patient=1137192</v>
-      </c>
-      <c r="AA37" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B37&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient</v>
-      </c>
-      <c r="AB37" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B37)&amp;"-"&amp;SUBSTITUTE(C37,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-immunization-patient.html</v>
+      <c r="Y37" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA37" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5561,9 +6359,8 @@
       <c r="E38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      <c r="F38" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>57</v>
@@ -5574,9 +6371,8 @@
       <c r="I38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J38" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Immunization.status</v>
+      <c r="J38" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>57</v>
@@ -5590,9 +6386,8 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-immunization-status.html</v>
+      <c r="AB38" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5611,9 +6406,8 @@
       <c r="E39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      <c r="F39" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>57</v>
@@ -5624,9 +6418,8 @@
       <c r="I39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J39" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Immunization.date</v>
+      <c r="J39" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>57</v>
@@ -5644,9 +6437,8 @@
         <v>99</v>
       </c>
       <c r="AA39" s="12"/>
-      <c r="AB39" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>SearchParameter-us-core-immunization-date.html</v>
+      <c r="AB39" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -5660,14 +6452,13 @@
         <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F40" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="F40" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>57</v>
@@ -5678,9 +6469,8 @@
       <c r="I40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J40" s="1" t="str">
-        <f>B40&amp;".id"</f>
-        <v>DocumentReference.id</v>
+      <c r="J40" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>57</v>
@@ -5689,17 +6479,16 @@
         <v>57</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB40" s="1" t="str">
-        <f t="shared" ref="AB40" si="13">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-_id.html</v>
+        <v>320</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5718,9 +6507,8 @@
       <c r="E41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="str">
-        <f t="shared" ref="F41:F68" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B41)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="F41" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>57</v>
@@ -5731,9 +6519,8 @@
       <c r="I41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J41" s="1" t="str">
-        <f t="shared" ref="J41:J65" si="15">B41&amp;"."&amp;C41</f>
-        <v>DocumentReference.status</v>
+      <c r="J41" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>57</v>
@@ -5747,9 +6534,8 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
-      <c r="AB41" s="1" t="str">
-        <f t="shared" ref="AB41:AB68" si="16">"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;C41&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-status.html</v>
+      <c r="AB41" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
@@ -5763,14 +6549,13 @@
         <v>94</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F42" s="1" t="str">
-        <f t="shared" ref="F42:F45" si="17">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B42)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="F42" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>57</v>
@@ -5781,9 +6566,8 @@
       <c r="I42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>DocumentReference.patient</v>
+      <c r="J42" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>57</v>
@@ -5794,21 +6578,17 @@
       <c r="X42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y42" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B42)&amp;"s for a patient"</f>
-        <v>support searching for all documentreferences for a patient</v>
-      </c>
-      <c r="Z42" s="5" t="str">
-        <f>"GET [base]/"&amp;B42&amp;"?patient=1137192"</f>
-        <v>GET [base]/DocumentReference?patient=1137192</v>
-      </c>
-      <c r="AA42" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B42&amp; " resources for the specified patient. See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</v>
-      </c>
-      <c r="AB42" s="1" t="str">
-        <f t="shared" ref="AB42:AB45" si="18">"SearchParameter-us-core-"&amp;LOWER((B42)&amp;"-"&amp;C42&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-patient.html</v>
+      <c r="Y42" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA42" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5827,9 +6607,8 @@
       <c r="E43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="F43" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>57</v>
@@ -5840,9 +6619,8 @@
       <c r="I43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="1" t="str">
-        <f t="shared" ref="J43:J45" si="19">B43&amp;"."&amp;C43</f>
-        <v>DocumentReference.category</v>
+      <c r="J43" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>57</v>
@@ -5856,9 +6634,8 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
-      <c r="AB43" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>SearchParameter-us-core-documentreference-category.html</v>
+      <c r="AB43" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5877,9 +6654,8 @@
       <c r="E44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="F44" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>57</v>
@@ -5890,9 +6666,8 @@
       <c r="I44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J44" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>DocumentReference.type</v>
+      <c r="J44" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>57</v>
@@ -5903,9 +6678,8 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
-      <c r="AB44" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>SearchParameter-us-core-documentreference-type.html</v>
+      <c r="AB44" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5924,9 +6698,8 @@
       <c r="E45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="F45" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>57</v>
@@ -5937,9 +6710,8 @@
       <c r="I45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J45" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>DocumentReference.date</v>
+      <c r="J45" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>57</v>
@@ -5957,9 +6729,8 @@
         <v>99</v>
       </c>
       <c r="AA45" s="12"/>
-      <c r="AB45" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>SearchParameter-us-core-documentreference-date.html</v>
+      <c r="AB45" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5970,7 +6741,7 @@
         <v>186</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>32</v>
@@ -5978,9 +6749,8 @@
       <c r="E46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="1" t="str">
-        <f t="shared" ref="F46" si="20">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B46)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="F46" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>57</v>
@@ -5992,7 +6762,7 @@
         <v>83</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>57</v>
@@ -6010,9 +6780,8 @@
         <v>99</v>
       </c>
       <c r="AA46" s="12"/>
-      <c r="AB46" s="1" t="str">
-        <f t="shared" ref="AB46" si="21">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
-        <v>SearchParameter-us-core-documentreference-period.html</v>
+      <c r="AB46" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6031,9 +6800,8 @@
       <c r="E47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="str">
-        <f t="shared" ref="F47:F51" si="22">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B47)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      <c r="F47" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>57</v>
@@ -6044,9 +6812,8 @@
       <c r="I47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J47" s="1" t="str">
-        <f t="shared" ref="J47:J51" si="23">B47&amp;"."&amp;C47</f>
-        <v>DiagnosticReport.status</v>
+      <c r="J47" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>57</v>
@@ -6060,9 +6827,8 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
-      <c r="AB47" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B47)&amp;"-"&amp;C47&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-status.html</v>
+      <c r="AB47" s="1" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -6081,9 +6847,8 @@
       <c r="E48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      <c r="F48" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>57</v>
@@ -6094,9 +6859,8 @@
       <c r="I48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J48" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>DiagnosticReport.patient</v>
+      <c r="J48" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>57</v>
@@ -6107,21 +6871,17 @@
       <c r="X48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y48" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B48)&amp;"s for a patient"</f>
-        <v>support searching for all diagnosticreports for a patient</v>
-      </c>
-      <c r="Z48" s="5" t="str">
-        <f>"GET [base]/"&amp;B48&amp;"?patient=1137192"</f>
-        <v>GET [base]/DiagnosticReport?patient=1137192</v>
-      </c>
-      <c r="AA48" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B48&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient</v>
-      </c>
-      <c r="AB48" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B48)&amp;"-"&amp;C48&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
+      <c r="Y48" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA48" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6140,9 +6900,8 @@
       <c r="E49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      <c r="F49" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>57</v>
@@ -6153,9 +6912,8 @@
       <c r="I49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J49" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>DiagnosticReport.category</v>
+      <c r="J49" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>57</v>
@@ -6169,9 +6927,8 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
-      <c r="AB49" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B49)&amp;"-"&amp;C49&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-category.html</v>
+      <c r="AB49" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6190,9 +6947,8 @@
       <c r="E50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F50" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      <c r="F50" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>57</v>
@@ -6203,9 +6959,8 @@
       <c r="I50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J50" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>DiagnosticReport.code</v>
+      <c r="J50" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>57</v>
@@ -6219,9 +6974,8 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
-      <c r="AB50" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B50)&amp;"-"&amp;C50&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-code.html</v>
+      <c r="AB50" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6240,9 +6994,8 @@
       <c r="E51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      <c r="F51" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>57</v>
@@ -6253,9 +7006,8 @@
       <c r="I51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J51" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>DiagnosticReport.date</v>
+      <c r="J51" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>57</v>
@@ -6273,9 +7025,8 @@
         <v>99</v>
       </c>
       <c r="AA51" s="12"/>
-      <c r="AB51" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B51)&amp;"-"&amp;C51&amp;".html")</f>
-        <v>SearchParameter-us-core-diagnosticreport-date.html</v>
+      <c r="AB51" s="1" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6286,7 +7037,7 @@
         <v>188</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>32</v>
@@ -6294,9 +7045,8 @@
       <c r="E52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      <c r="F52" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>57</v>
@@ -6307,9 +7057,8 @@
       <c r="I52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Goal.lifecycle-status</v>
+      <c r="J52" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>57</v>
@@ -6323,9 +7072,8 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
-      <c r="AB52" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
+      <c r="AB52" s="1" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -6339,14 +7087,13 @@
         <v>94</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E53" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="1" t="str">
-        <f t="shared" ref="F53:F54" si="24">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B53)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      <c r="F53" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>57</v>
@@ -6357,9 +7104,8 @@
       <c r="I53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J53" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Goal.patient</v>
+      <c r="J53" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>57</v>
@@ -6370,21 +7116,17 @@
       <c r="X53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y53" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B53)&amp;"s for a patient"</f>
-        <v>support searching for all goals for a patient</v>
-      </c>
-      <c r="Z53" s="5" t="str">
-        <f>"GET [base]/"&amp;B53&amp;"?patient=1137192"</f>
-        <v>GET [base]/Goal?patient=1137192</v>
-      </c>
-      <c r="AA53" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B53&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient</v>
-      </c>
-      <c r="AB53" s="1" t="str">
-        <f t="shared" ref="AB53:AB54" si="25">"SearchParameter-us-core-"&amp;LOWER((B53)&amp;"-"&amp;C53&amp;".html")</f>
-        <v>SearchParameter-us-core-goal-patient.html</v>
+      <c r="Y53" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z53" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA53" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6395,7 +7137,7 @@
         <v>188</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>357</v>
+        <v>605</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>32</v>
@@ -6403,9 +7145,8 @@
       <c r="E54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F54" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      <c r="F54" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>57</v>
@@ -6416,9 +7157,8 @@
       <c r="I54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="1" t="str">
-        <f t="shared" ref="J54" si="26">B54&amp;"."&amp;C54</f>
-        <v>Goal.start-date</v>
+      <c r="J54" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>57</v>
@@ -6436,9 +7176,8 @@
         <v>99</v>
       </c>
       <c r="AA54" s="12"/>
-      <c r="AB54" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>SearchParameter-us-core-goal-start-date.html</v>
+      <c r="AB54" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6457,9 +7196,8 @@
       <c r="E55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F55" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      <c r="F55" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>57</v>
@@ -6470,9 +7208,8 @@
       <c r="I55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J55" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>MedicationRequest.status</v>
+      <c r="J55" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>57</v>
@@ -6486,9 +7223,8 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
-      <c r="AB55" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-medicationrequest-status.html</v>
+      <c r="AB55" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="1" customFormat="1" ht="46" x14ac:dyDescent="0.2">
@@ -6502,14 +7238,13 @@
         <v>94</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E56" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F56" s="1" t="str">
-        <f t="shared" ref="F56" si="27">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B56)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      <c r="F56" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>57</v>
@@ -6520,9 +7255,8 @@
       <c r="I56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J56" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>MedicationRequest.patient</v>
+      <c r="J56" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>57</v>
@@ -6532,24 +7266,22 @@
       </c>
       <c r="U56" s="7"/>
       <c r="V56" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>96</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Z56" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA56" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B56&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
-        <v>Fetches a bundle of all MedicationRequest resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
-      </c>
-      <c r="AB56" s="1" t="str">
-        <f t="shared" ref="AB56" si="28">"SearchParameter-us-core-"&amp;LOWER((B56)&amp;"-"&amp;C56&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationrequest-patient.html</v>
+        <v>376</v>
+      </c>
+      <c r="AA56" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6560,7 +7292,7 @@
         <v>189</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>32</v>
@@ -6568,9 +7300,8 @@
       <c r="E57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F57" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      <c r="F57" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>57</v>
@@ -6581,9 +7312,8 @@
       <c r="I57" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J57" s="1" t="str">
-        <f t="shared" ref="J57" si="29">B57&amp;"."&amp;C57</f>
-        <v>MedicationRequest.authoredon</v>
+      <c r="J57" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>57</v>
@@ -6601,9 +7331,8 @@
         <v>99</v>
       </c>
       <c r="AA57" s="12"/>
-      <c r="AB57" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
+      <c r="AB57" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6622,9 +7351,8 @@
       <c r="E58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F58" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B58)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+      <c r="F58" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>57</v>
@@ -6635,9 +7363,8 @@
       <c r="I58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J58" s="1" t="str">
-        <f>B58&amp;"."&amp;C58</f>
-        <v>MedicationStatement.status</v>
+      <c r="J58" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>57</v>
@@ -6651,9 +7378,8 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
-      <c r="AB58" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B58)&amp;"-"&amp;C58&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationstatement-status.html</v>
+      <c r="AB58" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="59" spans="1:28" s="1" customFormat="1" ht="46" x14ac:dyDescent="0.2">
@@ -6667,14 +7393,13 @@
         <v>94</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E59" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F59" s="1" t="str">
-        <f t="shared" ref="F59:F60" si="30">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B59)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+      <c r="F59" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>57</v>
@@ -6685,9 +7410,8 @@
       <c r="I59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J59" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>MedicationStatement.patient</v>
+      <c r="J59" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>57</v>
@@ -6696,24 +7420,22 @@
         <v>57</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Z59" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA59" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B59&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
-        <v>Fetches a bundle of all MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
-      </c>
-      <c r="AB59" s="1" t="str">
-        <f t="shared" ref="AB59:AB60" si="31">"SearchParameter-us-core-"&amp;LOWER((B59)&amp;"-"&amp;C59&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationstatement-patient.html</v>
+        <v>377</v>
+      </c>
+      <c r="AA59" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB59" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6724,7 +7446,7 @@
         <v>192</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>32</v>
@@ -6732,9 +7454,8 @@
       <c r="E60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+      <c r="F60" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>57</v>
@@ -6745,9 +7466,8 @@
       <c r="I60" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J60" s="1" t="str">
-        <f t="shared" ref="J60" si="32">B60&amp;"."&amp;C60</f>
-        <v>MedicationStatement.effective</v>
+      <c r="J60" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>57</v>
@@ -6765,9 +7485,8 @@
         <v>99</v>
       </c>
       <c r="AA60" s="12"/>
-      <c r="AB60" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>SearchParameter-us-core-medicationstatement-effective.html</v>
+      <c r="AB60" s="1" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6786,9 +7505,8 @@
       <c r="E61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      <c r="F61" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>57</v>
@@ -6799,9 +7517,8 @@
       <c r="I61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Procedure.status</v>
+      <c r="J61" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>57</v>
@@ -6815,9 +7532,8 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
-      <c r="AB61" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-procedure-status.html</v>
+      <c r="AB61" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -6831,14 +7547,13 @@
         <v>94</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E62" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F62" s="1" t="str">
-        <f t="shared" ref="F62:F64" si="33">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B62)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      <c r="F62" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>57</v>
@@ -6849,9 +7564,8 @@
       <c r="I62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J62" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Procedure.patient</v>
+      <c r="J62" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>57</v>
@@ -6862,20 +7576,17 @@
       <c r="X62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y62" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B62)&amp;"s for a patient"</f>
-        <v>support searching for all procedures for a patient</v>
+      <c r="Y62" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="Z62" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA62" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B62&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient</v>
-      </c>
-      <c r="AB62" s="1" t="str">
-        <f t="shared" ref="AB62:AB64" si="34">"SearchParameter-us-core-"&amp;LOWER((B62)&amp;"-"&amp;C62&amp;".html")</f>
-        <v>SearchParameter-us-core-procedure-patient.html</v>
+        <v>227</v>
+      </c>
+      <c r="AA62" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6894,9 +7605,8 @@
       <c r="E63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F63" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      <c r="F63" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>57</v>
@@ -6907,9 +7617,8 @@
       <c r="I63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J63" s="1" t="str">
-        <f t="shared" ref="J63:J64" si="35">B63&amp;"."&amp;C63</f>
-        <v>Procedure.date</v>
+      <c r="J63" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>57</v>
@@ -6927,9 +7636,8 @@
         <v>99</v>
       </c>
       <c r="AA63" s="12"/>
-      <c r="AB63" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>SearchParameter-us-core-procedure-date.html</v>
+      <c r="AB63" s="1" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6948,9 +7656,8 @@
       <c r="E64" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F64" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      <c r="F64" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>57</v>
@@ -6961,9 +7668,8 @@
       <c r="I64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J64" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Procedure.code</v>
+      <c r="J64" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>57</v>
@@ -6977,9 +7683,8 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
-      <c r="AB64" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>SearchParameter-us-core-procedure-code.html</v>
+      <c r="AB64" s="1" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6998,9 +7703,8 @@
       <c r="E65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F65" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+      <c r="F65" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>57</v>
@@ -7011,9 +7715,8 @@
       <c r="I65" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J65" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Observation.status</v>
+      <c r="J65" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>57</v>
@@ -7027,9 +7730,8 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
-      <c r="AB65" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-observation-status.html</v>
+      <c r="AB65" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7048,9 +7750,8 @@
       <c r="E66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F66" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+      <c r="F66" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>57</v>
@@ -7061,9 +7762,8 @@
       <c r="I66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J66" s="1" t="str">
-        <f t="shared" ref="J66:J68" si="36">B66&amp;"."&amp;C66</f>
-        <v>Observation.category</v>
+      <c r="J66" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>57</v>
@@ -7077,9 +7777,8 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
-      <c r="AB66" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-observation-category.html</v>
+      <c r="AB66" s="1" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="67" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7098,9 +7797,8 @@
       <c r="E67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+      <c r="F67" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>57</v>
@@ -7111,9 +7809,8 @@
       <c r="I67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J67" s="1" t="str">
-        <f t="shared" si="36"/>
-        <v>Observation.code</v>
+      <c r="J67" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>57</v>
@@ -7127,9 +7824,8 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
-      <c r="AB67" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-observation-code.html</v>
+      <c r="AB67" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7148,9 +7844,8 @@
       <c r="E68" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F68" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+      <c r="F68" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>57</v>
@@ -7161,9 +7856,8 @@
       <c r="I68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J68" s="1" t="str">
-        <f t="shared" si="36"/>
-        <v>Observation.date</v>
+      <c r="J68" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>57</v>
@@ -7181,9 +7875,8 @@
         <v>99</v>
       </c>
       <c r="AA68" s="12"/>
-      <c r="AB68" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-observation-date.html</v>
+      <c r="AB68" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -7202,9 +7895,8 @@
       <c r="E69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F69" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B69)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+      <c r="F69" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>57</v>
@@ -7215,9 +7907,8 @@
       <c r="I69" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="1" t="str">
-        <f>B69&amp;"."&amp;C69</f>
-        <v>Observation.patient</v>
+      <c r="J69" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>57</v>
@@ -7228,21 +7919,17 @@
       <c r="X69" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y69" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B69)&amp;"s for a patient"</f>
-        <v>support searching for all observations for a patient</v>
-      </c>
-      <c r="Z69" s="5" t="str">
-        <f>"GET [base]/"&amp;B69&amp;"?patient=1137192"</f>
-        <v>GET [base]/Observation?patient=1137192</v>
-      </c>
-      <c r="AA69" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B69&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient</v>
-      </c>
-      <c r="AB69" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B69)&amp;"-"&amp;C69&amp;".html")</f>
-        <v>SearchParameter-us-core-observation-patient.html</v>
+      <c r="Y69" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z69" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA69" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7250,7 +7937,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>145</v>
@@ -7261,9 +7948,8 @@
       <c r="E70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F70" s="1" t="str">
-        <f t="shared" ref="F70:F72" si="37">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B70)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+      <c r="F70" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>57</v>
@@ -7274,9 +7960,8 @@
       <c r="I70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J70" s="1" t="str">
-        <f t="shared" ref="J70:J72" si="38">B70&amp;"."&amp;C70</f>
-        <v>CarePlan.category</v>
+      <c r="J70" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>57</v>
@@ -7290,9 +7975,8 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
-      <c r="AB70" s="1" t="str">
-        <f t="shared" ref="AB70:AB72" si="39">"SearchParameter-us-core-"&amp;LOWER((B70)&amp;"-"&amp;C70&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-category.html</v>
+      <c r="AB70" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="71" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7300,7 +7984,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>28</v>
@@ -7311,9 +7995,8 @@
       <c r="E71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F71" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
+      <c r="F71" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>57</v>
@@ -7324,9 +8007,8 @@
       <c r="I71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J71" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>!CarePlan.code</v>
+      <c r="J71" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>57</v>
@@ -7337,9 +8019,8 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
-      <c r="AB71" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>SearchParameter-us-core-!careplan-code.html</v>
+      <c r="AB71" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="72" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7347,7 +8028,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>83</v>
@@ -7358,9 +8039,8 @@
       <c r="E72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F72" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+      <c r="F72" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>57</v>
@@ -7371,9 +8051,8 @@
       <c r="I72" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J72" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>CarePlan.date</v>
+      <c r="J72" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>57</v>
@@ -7391,9 +8070,8 @@
         <v>99</v>
       </c>
       <c r="AA72" s="12"/>
-      <c r="AB72" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>SearchParameter-us-core-careplan-date.html</v>
+      <c r="AB72" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -7401,7 +8079,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>94</v>
@@ -7412,9 +8090,8 @@
       <c r="E73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F73" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B73)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+      <c r="F73" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>57</v>
@@ -7425,9 +8102,8 @@
       <c r="I73" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J73" s="1" t="str">
-        <f>B73&amp;"."&amp;C73</f>
-        <v>CarePlan.patient</v>
+      <c r="J73" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>57</v>
@@ -7438,21 +8114,17 @@
       <c r="X73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y73" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B73)&amp;"s for a patient"</f>
-        <v>support searching for all careplans for a patient</v>
-      </c>
-      <c r="Z73" s="5" t="str">
-        <f>"GET [base]/"&amp;B73&amp;"?patient=1137192"</f>
-        <v>GET [base]/CarePlan?patient=1137192</v>
-      </c>
-      <c r="AA73" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B73&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
-      </c>
-      <c r="AB73" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B73)&amp;"-"&amp;C73&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-patient.html</v>
+      <c r="Y73" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z73" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA73" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7460,7 +8132,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>63</v>
@@ -7471,9 +8143,8 @@
       <c r="E74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F74" s="1" t="str">
-        <f t="shared" ref="F74" si="40">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B74)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+      <c r="F74" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>57</v>
@@ -7484,9 +8155,8 @@
       <c r="I74" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J74" s="1" t="str">
-        <f t="shared" ref="J74" si="41">B74&amp;"."&amp;C74</f>
-        <v>CarePlan.status</v>
+      <c r="J74" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>57</v>
@@ -7500,9 +8170,8 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
-      <c r="AB74" s="1" t="str">
-        <f t="shared" ref="AB74" si="42">"SearchParameter-us-core-"&amp;LOWER((B74)&amp;"-"&amp;C74&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-status.html</v>
+      <c r="AB74" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -7510,7 +8179,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>94</v>
@@ -7521,9 +8190,8 @@
       <c r="E75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F75" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B75)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+      <c r="F75" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>57</v>
@@ -7534,9 +8202,8 @@
       <c r="I75" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J75" s="1" t="str">
-        <f>B75&amp;"."&amp;C75</f>
-        <v>CareTeam.patient</v>
+      <c r="J75" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>57</v>
@@ -7547,21 +8214,17 @@
       <c r="X75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y75" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B75)&amp;"s for a patient"</f>
-        <v>support searching for all careteams for a patient</v>
-      </c>
-      <c r="Z75" s="5" t="str">
-        <f>"GET [base]/"&amp;B75&amp;"?patient=1137192"</f>
-        <v>GET [base]/CareTeam?patient=1137192</v>
-      </c>
-      <c r="AA75" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B75&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
-      </c>
-      <c r="AB75" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
-        <v>SearchParameter-us-core-careteam-patient.html</v>
+      <c r="Y75" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z75" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA75" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7569,7 +8232,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>63</v>
@@ -7580,9 +8243,8 @@
       <c r="E76" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F76" s="1" t="str">
-        <f t="shared" ref="F76" si="43">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B76)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+      <c r="F76" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>57</v>
@@ -7593,9 +8255,8 @@
       <c r="I76" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J76" s="1" t="str">
-        <f t="shared" ref="J76" si="44">B76&amp;"."&amp;C76</f>
-        <v>CareTeam.status</v>
+      <c r="J76" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>57</v>
@@ -7609,9 +8270,8 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
-      <c r="AB76" s="1" t="str">
-        <f t="shared" ref="AB76" si="45">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
-        <v>SearchParameter-us-core-careteam-status.html</v>
+      <c r="AB76" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -7619,20 +8279,19 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F77" s="1" t="str">
-        <f t="shared" ref="F77:F88" si="46">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B77)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+      <c r="F77" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>57</v>
@@ -7643,9 +8302,8 @@
       <c r="I77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J77" s="1" t="str">
-        <f t="shared" ref="J77:J92" si="47">B77&amp;"."&amp;C77</f>
-        <v>Device.patient</v>
+      <c r="J77" s="1" t="s">
+        <v>667</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>57</v>
@@ -7656,21 +8314,17 @@
       <c r="X77" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y77" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B77)&amp;"s for a patient, including implantable devices"</f>
-        <v>support searching for all devices for a patient, including implantable devices</v>
-      </c>
-      <c r="Z77" s="5" t="str">
-        <f>"GET [base]/"&amp;B77&amp;"?patient=1137192"</f>
-        <v>GET [base]/Device?patient=1137192</v>
-      </c>
-      <c r="AA77" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B77&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Device resources for the specified patient</v>
-      </c>
-      <c r="AB77" s="1" t="str">
-        <f t="shared" ref="AB77:AB88" si="48">"SearchParameter-us-core-"&amp;LOWER((B77)&amp;"-"&amp;C77&amp;".html")</f>
-        <v>SearchParameter-us-core-device-patient.html</v>
+      <c r="Y77" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z77" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA77" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7678,7 +8332,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>13</v>
@@ -7689,9 +8343,8 @@
       <c r="E78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F78" s="1" t="str">
-        <f t="shared" ref="F78" si="49">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+      <c r="F78" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>57</v>
@@ -7702,9 +8355,8 @@
       <c r="I78" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J78" s="1" t="str">
-        <f t="shared" ref="J78" si="50">B78&amp;"."&amp;C78</f>
-        <v>Device.type</v>
+      <c r="J78" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>57</v>
@@ -7714,26 +8366,28 @@
       </c>
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
+      <c r="AB78" s="1" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="79" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E79" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F79" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+      <c r="F79" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>57</v>
@@ -7744,9 +8398,8 @@
       <c r="I79" t="s">
         <v>66</v>
       </c>
-      <c r="J79" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.name</v>
+      <c r="J79" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>57</v>
@@ -7755,18 +8408,16 @@
         <v>57</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Z79" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA79" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B79&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Location resources that match the name</v>
-      </c>
-      <c r="AB79" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-name.html</v>
+        <v>282</v>
+      </c>
+      <c r="AA79" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -7774,20 +8425,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F80" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+      <c r="F80" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>57</v>
@@ -7798,9 +8448,8 @@
       <c r="I80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J80" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.address</v>
+      <c r="J80" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>57</v>
@@ -7809,18 +8458,16 @@
         <v>57</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Z80" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA80" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B80&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Location resources that match the address string</v>
-      </c>
-      <c r="AB80" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-address.html</v>
+        <v>283</v>
+      </c>
+      <c r="AA80" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -7828,10 +8475,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>73</v>
@@ -7839,9 +8486,8 @@
       <c r="E81" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F81" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+      <c r="F81" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>57</v>
@@ -7852,9 +8498,8 @@
       <c r="I81" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J81" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.address-city</v>
+      <c r="J81" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>57</v>
@@ -7863,18 +8508,16 @@
         <v>57</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Z81" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA81" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B81&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all Location resources for the city</v>
-      </c>
-      <c r="AB81" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-address-city.html</v>
+        <v>286</v>
+      </c>
+      <c r="AA81" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -7882,10 +8525,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>73</v>
@@ -7893,9 +8536,8 @@
       <c r="E82" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F82" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+      <c r="F82" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>57</v>
@@ -7906,9 +8548,8 @@
       <c r="I82" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J82" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.address-state</v>
+      <c r="J82" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>57</v>
@@ -7917,18 +8558,16 @@
         <v>57</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Z82" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA82" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B82&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all Location resources for the state</v>
-      </c>
-      <c r="AB82" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-address-state.html</v>
+        <v>285</v>
+      </c>
+      <c r="AA82" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -7936,10 +8575,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>73</v>
@@ -7947,9 +8586,8 @@
       <c r="E83" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F83" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+      <c r="F83" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>57</v>
@@ -7960,9 +8598,8 @@
       <c r="I83" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J83" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.address-postalcode</v>
+      <c r="J83" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>57</v>
@@ -7971,18 +8608,16 @@
         <v>57</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Z83" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA83" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all Location resources for the ZIP code</v>
-      </c>
-      <c r="AB83" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-address-postalcode.html</v>
+        <v>284</v>
+      </c>
+      <c r="AA83" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -7990,20 +8625,19 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E84" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F84" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+      <c r="F84" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>57</v>
@@ -8014,9 +8648,8 @@
       <c r="I84" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J84" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Organization.name</v>
+      <c r="J84" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>57</v>
@@ -8025,18 +8658,16 @@
         <v>57</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="Z84" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA84" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B84&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Organization resources that match the name</v>
-      </c>
-      <c r="AB84" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-organization-name.html</v>
+        <v>282</v>
+      </c>
+      <c r="AA84" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="85" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8044,20 +8675,19 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F85" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+      <c r="F85" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>57</v>
@@ -8068,9 +8698,8 @@
       <c r="I85" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J85" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Organization.address</v>
+      <c r="J85" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>57</v>
@@ -8079,18 +8708,16 @@
         <v>57</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Z85" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA85" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B85&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Organization resources that match the address string</v>
-      </c>
-      <c r="AB85" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-organization-address.html</v>
+        <v>283</v>
+      </c>
+      <c r="AA85" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8098,10 +8725,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>73</v>
@@ -8109,9 +8736,8 @@
       <c r="E86" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F86" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+      <c r="F86" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>57</v>
@@ -8122,9 +8748,8 @@
       <c r="I86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J86" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>!Organization.address-city</v>
+      <c r="J86" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>57</v>
@@ -8133,18 +8758,16 @@
         <v>57</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Z86" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA86" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B86&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all !Organization resources for the city</v>
-      </c>
-      <c r="AB86" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-!organization-address-city.html</v>
+        <v>286</v>
+      </c>
+      <c r="AA86" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8152,10 +8775,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>73</v>
@@ -8163,9 +8786,8 @@
       <c r="E87" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F87" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+      <c r="F87" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>57</v>
@@ -8176,9 +8798,8 @@
       <c r="I87" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J87" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>!Organization.adress-state</v>
+      <c r="J87" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>57</v>
@@ -8187,18 +8808,16 @@
         <v>57</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Z87" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA87" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B87&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all !Organization resources for the state</v>
-      </c>
-      <c r="AB87" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-!organization-adress-state.html</v>
+        <v>285</v>
+      </c>
+      <c r="AA87" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="88" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8206,10 +8825,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>73</v>
@@ -8217,9 +8836,8 @@
       <c r="E88" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F88" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+      <c r="F88" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>57</v>
@@ -8230,9 +8848,8 @@
       <c r="I88" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J88" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>!Organization.address-postalcode</v>
+      <c r="J88" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>57</v>
@@ -8241,18 +8858,16 @@
         <v>57</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Z88" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA88" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
-      </c>
-      <c r="AB88" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
+        <v>284</v>
+      </c>
+      <c r="AA88" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="89" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8260,20 +8875,19 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F89" s="1" t="str">
-        <f t="shared" ref="F89:F90" si="51">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B89)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      <c r="F89" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>57</v>
@@ -8284,9 +8898,8 @@
       <c r="I89" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J89" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Practitioner.name</v>
+      <c r="J89" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>57</v>
@@ -8298,18 +8911,16 @@
         <v>81</v>
       </c>
       <c r="Y89" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Z89" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA89" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B89&amp;" resources matching the name"</f>
-        <v>Fetches a bundle of all Practitioner resources matching the name</v>
-      </c>
-      <c r="AB89" s="1" t="str">
-        <f t="shared" ref="AB89:AB90" si="52">"SearchParameter-us-core-"&amp;LOWER((B89)&amp;"-"&amp;SUBSTITUTE(C89,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitioner-name.html</v>
+        <v>296</v>
+      </c>
+      <c r="AA89" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="90" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8317,20 +8928,19 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F90" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      <c r="F90" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>57</v>
@@ -8341,9 +8951,8 @@
       <c r="I90" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J90" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Practitioner.identifier</v>
+      <c r="J90" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>57</v>
@@ -8352,18 +8961,16 @@
         <v>57</v>
       </c>
       <c r="Y90" s="5" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="Z90" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA90" s="12" t="str">
-        <f>"Fetches a bundle containing any "&amp;B90&amp;" resources matching the identifier"</f>
-        <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
-      </c>
-      <c r="AB90" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v>SearchParameter-us-core-practitioner-identifier.html</v>
+        <v>380</v>
+      </c>
+      <c r="AA90" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8371,20 +8978,19 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F91" s="1" t="str">
-        <f t="shared" ref="F91:F92" si="53">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B91)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+      <c r="F91" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>57</v>
@@ -8395,9 +9001,8 @@
       <c r="I91" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J91" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>PractitionerRole.specialty</v>
+      <c r="J91" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>57</v>
@@ -8406,21 +9011,19 @@
         <v>57</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="Z91" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA91" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B91&amp;" resources matching the specialty"</f>
-        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
-      </c>
-      <c r="AB91" s="1" t="str">
-        <f t="shared" ref="AB91" si="54">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
+        <v>379</v>
+      </c>
+      <c r="AA91" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -8428,20 +9031,19 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F92" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+      <c r="F92" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="G92" t="s">
         <v>57</v>
@@ -8452,9 +9054,8 @@
       <c r="I92" t="s">
         <v>95</v>
       </c>
-      <c r="J92" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>PractitionerRole.practitioner</v>
+      <c r="J92" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>57</v>
@@ -8463,24 +9064,22 @@
         <v>57</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Z92" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA92" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B92&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
-        <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
-      </c>
-      <c r="AB92" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B92)&amp;"-"&amp;SUBSTITUTE(C92,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
+        <v>378</v>
+      </c>
+      <c r="AA92" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
@@ -8505,7 +9104,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8542,7 +9141,7 @@
         <v>103</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -8561,9 +9160,8 @@
       <c r="B2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C5" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C2" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D2" t="s">
         <v>104</v>
@@ -8574,9 +9172,8 @@
       <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="5" t="str">
-        <f t="shared" ref="J2:J28" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
+      <c r="J2" s="5" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8586,9 +9183,8 @@
       <c r="B3" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C3" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -8599,9 +9195,8 @@
       <c r="F3" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
+      <c r="J3" s="5" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -8611,9 +9206,8 @@
       <c r="B4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C4" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
@@ -8624,9 +9218,8 @@
       <c r="F4" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
+      <c r="J4" s="5" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -8636,9 +9229,8 @@
       <c r="B5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C5" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D5" t="s">
         <v>109</v>
@@ -8649,9 +9241,8 @@
       <c r="F5" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
+      <c r="J5" s="5" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -8661,9 +9252,8 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B6)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="C6" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="D6" t="s">
         <v>110</v>
@@ -8675,14 +9265,13 @@
         <v>111</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
+        <v>341</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -8692,9 +9281,8 @@
       <c r="B7" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" ref="C7:C58" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C7" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -8705,9 +9293,8 @@
       <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
+      <c r="J7" s="5" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -8717,9 +9304,8 @@
       <c r="B8" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C8" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D8" t="s">
         <v>113</v>
@@ -8730,9 +9316,8 @@
       <c r="F8" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
+      <c r="J8" s="5" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -8742,9 +9327,8 @@
       <c r="B9" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C9" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>
@@ -8756,9 +9340,8 @@
         <v>111</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
+      <c r="J9" s="5" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -8768,9 +9351,8 @@
       <c r="B10" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C10" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
@@ -8783,9 +9365,8 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
+      <c r="J10" s="5" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -8795,9 +9376,8 @@
       <c r="B11" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C11" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D11" t="s">
         <v>116</v>
@@ -8809,9 +9389,8 @@
         <v>58</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
+      <c r="J11" s="5" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -8821,9 +9400,8 @@
       <c r="B12" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C12" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D12" t="s">
         <v>99</v>
@@ -8834,9 +9412,8 @@
       <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
+      <c r="J12" s="5" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -8846,28 +9423,26 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="C13" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="D13" t="s">
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>118</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
+        <v>342</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -8877,9 +9452,8 @@
       <c r="B14" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C14" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D14" t="s">
         <v>119</v>
@@ -8890,9 +9464,8 @@
       <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
+      <c r="J14" s="5" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -8902,9 +9475,8 @@
       <c r="B15" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C15" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D15" t="s">
         <v>120</v>
@@ -8915,9 +9487,8 @@
       <c r="F15" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
+      <c r="J15" s="5" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -8927,9 +9498,8 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="C16" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>123</v>
@@ -8941,14 +9511,13 @@
         <v>111</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
+        <v>343</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -8958,9 +9527,8 @@
       <c r="B17" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C17" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D17" t="s">
         <v>122</v>
@@ -8972,9 +9540,8 @@
         <v>111</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
+      <c r="J17" s="5" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -8984,9 +9551,8 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      <c r="C18" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -8998,14 +9564,13 @@
         <v>111</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
+        <v>344</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -9015,9 +9580,8 @@
       <c r="B19" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      <c r="C19" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D19" t="s">
         <v>124</v>
@@ -9030,9 +9594,8 @@
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
+      <c r="J19" s="5" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -9042,9 +9605,8 @@
       <c r="B20" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="C20" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D20" t="s">
         <v>125</v>
@@ -9056,9 +9618,8 @@
         <v>126</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
+      <c r="J20" s="5" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -9068,9 +9629,8 @@
       <c r="B21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B21)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="C21" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D21" t="s">
         <v>127</v>
@@ -9081,9 +9641,8 @@
       <c r="F21" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
+      <c r="J21" s="5" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -9093,9 +9652,8 @@
       <c r="B22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="C22" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D22" t="s">
         <v>129</v>
@@ -9107,9 +9665,8 @@
         <v>130</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="J22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
+      <c r="J22" s="5" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -9119,24 +9676,22 @@
       <c r="B23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="C23" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>132</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
+      <c r="J23" s="5" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -9146,9 +9701,8 @@
       <c r="B24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="C24" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D24" t="s">
         <v>133</v>
@@ -9161,9 +9715,8 @@
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
+      <c r="J24" s="5" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -9173,9 +9726,8 @@
       <c r="B25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="C25" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D25" t="s">
         <v>134</v>
@@ -9188,9 +9740,8 @@
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
+      <c r="J25" s="5" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -9200,9 +9751,8 @@
       <c r="B26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="C26" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D26" t="s">
         <v>135</v>
@@ -9213,9 +9763,8 @@
       <c r="F26" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
+      <c r="J26" s="5" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -9225,9 +9774,8 @@
       <c r="B27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="C27" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D27" t="s">
         <v>136</v>
@@ -9238,9 +9786,8 @@
       <c r="F27" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
+      <c r="J27" s="5" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -9250,9 +9797,8 @@
       <c r="B28" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      <c r="C28" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="D28" t="s">
         <v>137</v>
@@ -9263,9 +9809,8 @@
       <c r="F28" t="s">
         <v>132</v>
       </c>
-      <c r="J28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
+      <c r="J28" s="5" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -9275,9 +9820,8 @@
       <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D29" t="s">
         <v>138</v>
@@ -9294,9 +9838,8 @@
       <c r="I29" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J29" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B29&amp;" resources matching the specified "&amp;SUBSTITUTE(D29,","," and ")</f>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
+      <c r="J29" s="5" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -9306,15 +9849,14 @@
       <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D30" t="s">
         <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>139</v>
@@ -9325,9 +9867,8 @@
       <c r="I30" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="J30" s="5" t="str">
-        <f t="shared" ref="J30:J32" si="3">"Fetches a bundle of all "&amp;B30&amp;" resources matching the specified "&amp;SUBSTITUTE(D30,","," and ")</f>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
+      <c r="J30" s="5" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -9337,9 +9878,8 @@
       <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="C31" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D31" t="s">
         <v>141</v>
@@ -9356,9 +9896,8 @@
       <c r="I31" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J31" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
+      <c r="J31" s="5" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -9368,15 +9907,14 @@
       <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
         <v>132</v>
@@ -9387,9 +9925,8 @@
       <c r="I32" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J32" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
+      <c r="J32" s="5" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -9399,9 +9936,8 @@
       <c r="B33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      <c r="C33" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>149</v>
@@ -9413,16 +9949,16 @@
         <v>111</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>487</v>
+        <v>749</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>161</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -9432,9 +9968,8 @@
       <c r="B34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      <c r="C34" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>150</v>
@@ -9449,7 +9984,7 @@
         <v>155</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>151</v>
@@ -9462,9 +9997,8 @@
       <c r="B35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      <c r="C35" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>152</v>
@@ -9479,7 +10013,7 @@
         <v>156</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>157</v>
@@ -9492,9 +10026,8 @@
       <c r="B36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      <c r="C36" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>153</v>
@@ -9522,9 +10055,8 @@
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>149</v>
@@ -9539,10 +10071,10 @@
         <v>168</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9552,9 +10084,8 @@
       <c r="B38" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      <c r="C38" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>171</v>
@@ -9571,9 +10102,8 @@
       <c r="I38" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J38" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
+      <c r="J38" s="5" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9583,9 +10113,8 @@
       <c r="B39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      <c r="C39" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>121</v>
@@ -9597,14 +10126,13 @@
         <v>154</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J39" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B39&amp;" resources for the specified "&amp;SUBSTITUTE(D39,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
+      <c r="J39" s="5" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9615,7 +10143,7 @@
         <v>187</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>121</v>
@@ -9627,14 +10155,13 @@
         <v>111</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="J40" s="5" t="str">
-        <f t="shared" ref="J40:J56" si="4">"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+      <c r="J40" s="5" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -9645,29 +10172,28 @@
         <v>187</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J41" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
+      <c r="J41" s="5" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -9678,26 +10204,25 @@
         <v>187</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J42" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+        <v>207</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -9708,29 +10233,28 @@
         <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="J43" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
+      <c r="J43" s="5" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9741,26 +10265,25 @@
         <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J44" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <v>235</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9771,7 +10294,7 @@
         <v>187</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>121</v>
@@ -9783,14 +10306,13 @@
         <v>111</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="J45" s="5" t="str">
-        <f t="shared" ref="J45" si="5">"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+      <c r="J45" s="5" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9801,7 +10323,7 @@
         <v>187</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>150</v>
@@ -9813,14 +10335,13 @@
         <v>111</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="J46" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
+        <v>212</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9831,26 +10352,25 @@
         <v>187</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J47" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+        <v>207</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9861,26 +10381,25 @@
         <v>187</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J48" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
+        <v>213</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9891,26 +10410,25 @@
         <v>187</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J49" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <v>235</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9920,12 +10438,11 @@
       <c r="B50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      <c r="C50" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>73</v>
@@ -9934,14 +10451,13 @@
         <v>111</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="J50" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
+        <v>352</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9951,12 +10467,11 @@
       <c r="B51" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      <c r="C51" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>358</v>
+        <v>760</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>73</v>
@@ -9965,14 +10480,13 @@
         <v>154</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="J51" s="5" t="str">
-        <f t="shared" ref="J51" si="6">"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and start-date</v>
+        <v>761</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9982,27 +10496,26 @@
       <c r="B52" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      <c r="C52" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>194</v>
+        <v>763</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10012,12 +10525,11 @@
       <c r="B53" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      <c r="C53" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>73</v>
@@ -10026,13 +10538,13 @@
         <v>154</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>256</v>
+        <v>764</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10042,9 +10554,8 @@
       <c r="B54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+      <c r="C54" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>121</v>
@@ -10056,14 +10567,13 @@
         <v>111</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J54" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fetches a bundle of all MedicationStatement resources for the specified patient and status</v>
+        <v>765</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10073,12 +10583,11 @@
       <c r="B55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+      <c r="C55" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>73</v>
@@ -10087,13 +10596,13 @@
         <v>154</v>
       </c>
       <c r="H55" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10103,9 +10612,8 @@
       <c r="B56" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      <c r="C56" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>121</v>
@@ -10117,14 +10625,13 @@
         <v>111</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J56" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
+        <v>214</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10134,28 +10641,26 @@
       <c r="B57" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      <c r="C57" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="J57" s="5" t="str">
-        <f t="shared" ref="J57" si="7">"Fetches a bundle of all "&amp;B57&amp;" resources for the specified "&amp;SUBSTITUTE(D57,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
+        <v>229</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10165,28 +10670,26 @@
       <c r="B58" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      <c r="C58" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J58" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
+        <v>244</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10197,10 +10700,10 @@
         <v>191</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>200</v>
+        <v>468</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>73</v>
@@ -10209,16 +10712,16 @@
         <v>111</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10229,29 +10732,28 @@
         <v>191</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>200</v>
+        <v>468</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J60" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
+        <v>231</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10262,26 +10764,25 @@
         <v>191</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>200</v>
+        <v>468</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="J61" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B61&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
+        <v>371</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10292,29 +10793,28 @@
         <v>191</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>200</v>
+        <v>468</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J62" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
+        <v>232</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10325,26 +10825,25 @@
         <v>191</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>200</v>
+        <v>468</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="J63" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <v>237</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10352,10 +10851,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>200</v>
+        <v>468</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>121</v>
@@ -10367,14 +10866,13 @@
         <v>111</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J64" s="5" t="str">
-        <f t="shared" ref="J64" si="8">"Fetches a bundle of all "&amp;B64&amp;" resources for the specified "&amp;SUBSTITUTE(D64,","," and ")</f>
-        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
+        <v>216</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10382,32 +10880,31 @@
         <v>58</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J65" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified "&amp;SUBSTITUTE(D65,","," and ")&amp;"=`assess-plan`"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
+        <v>263</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10415,31 +10912,31 @@
         <v>59</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>270</v>
+        <v>777</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10447,13 +10944,13 @@
         <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>73</v>
@@ -10462,16 +10959,16 @@
         <v>111</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10479,31 +10976,31 @@
         <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="I68" s="5" t="s">
-        <v>272</v>
+        <v>778</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10511,32 +11008,31 @@
         <v>63</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" ref="C69" si="9">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B69)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <v>268</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -10547,29 +11043,28 @@
         <v>191</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="J70" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified patient and observation code."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
+        <v>304</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>779</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -10586,10 +11081,10 @@
         <v>191</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>73</v>
@@ -10598,17 +11093,16 @@
         <v>111</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J71" s="5" t="str">
-        <f t="shared" ref="J71" si="10">"Fetches a bundle of all "&amp;B71&amp;" resources for the specified "&amp;SUBSTITUTE(D71,","," and ")</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
+        <v>311</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10619,29 +11113,28 @@
         <v>191</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="J72" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
+        <v>310</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10652,29 +11145,28 @@
         <v>191</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="J73" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
+        <v>313</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10685,29 +11177,28 @@
         <v>191</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="J74" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
+        <v>315</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10718,26 +11209,25 @@
         <v>191</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="J75" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
+        <v>314</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10747,9 +11237,8 @@
       <c r="B76" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C76" s="1" t="str">
-        <f t="shared" ref="C76:C81" si="11">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B76)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="C76" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>121</v>
@@ -10761,14 +11250,13 @@
         <v>111</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="J76" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified "&amp;SUBSTITUTE(D76,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
+        <v>326</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10776,14 +11264,13 @@
         <v>43</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <f t="shared" ref="C77" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B77)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
+        <v>323</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>786</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>73</v>
@@ -10792,12 +11279,11 @@
         <v>154</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I77" s="5"/>
-      <c r="J77" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified "&amp;SUBSTITUTE(D77,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
+      <c r="J77" s="5" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10807,30 +11293,29 @@
       <c r="B78" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="C78" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -10840,30 +11325,29 @@
       <c r="B79" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C79" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="C79" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10873,27 +11357,26 @@
       <c r="B80" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="C80" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10903,28 +11386,26 @@
       <c r="B81" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C81" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      <c r="C81" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="J81" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B81&amp;" resources for the specified "&amp;SUBSTITUTE(D81,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+        <v>441</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10932,11 +11413,10 @@
         <v>41</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" ref="C82" si="13">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B82)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+        <v>272</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>123</v>
@@ -10948,20 +11428,17 @@
         <v>111</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="J58" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/SP/uscore-client.xlsx
+++ b/SP/uscore-client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/SP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D224FCF5-A38C-9F46-B1F6-EA05A964F5D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96651DE8-8CB5-47CD-92FE-76948173B0A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="740" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="735" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="796">
   <si>
     <t>Element</t>
   </si>
@@ -1498,9 +1497,6 @@
     <t>referencePolicy_conf</t>
   </si>
   <si>
-    <t>​The Section describes the expected capabilities of the US Core Client which is responsible for creating and initiating the queries for information about an individual patient. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined in the [Conformance Requirements for Server](CapabilityStatement-us-core-server.html). US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
     <t>client</t>
   </si>
   <si>
@@ -2495,13 +2491,25 @@
   <si>
     <t>A client **SHOULD** be capable of transacting a $docref operation and capable of receiving at least a reference to a generated CCD document, and  **MAY** be able to receive other document types, if available.   **SHOULD**  be capable of receiving documents as included resources in response to the operation.
 `GET [base]/DocumentReference/$docref?patient=[id]`</t>
+  </si>
+  <si>
+    <t>doc_DiagnosticReport</t>
+  </si>
+  <si>
+    <t>This conformance expectation applies **only**  to the *US Core DiagnosticReport Profile for Report and Note exchange* profile.  The conformance expectation for the *US Core DiagnosticReport Profile for Laboratory Results Reporting* is  **MAY**.</t>
+  </si>
+  <si>
+    <t>​The Section describes the expected capabilities of the US Core Client which is responsible for creating and initiating the queries for information about an individual patient. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined in the [Conformance Requirements for Server](CapabilityStatement-us-core-server.html). US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.
+*NOTE* : The [capabilitystatement-expectation](http://hl7.org/fhir/R4/extension-capabilitystatement-expectation.html) extension is used throughout this resource to formally express implementer expectations for the various elements.   This guide extends the usage context of this extension  to apply to these additional elements:
+- CapabilityStatement.rest.resource
+- [capabilitystatement-search-parameter-combination](http://hl7.org/fhir/R4/extension-capabilitystatement-search-parameter-combination.html) extension</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2618,7 +2626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2646,6 +2654,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -2963,17 +2974,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2981,52 +2992,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="105" customHeight="1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="141" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="103.5" customHeight="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3042,9 +3053,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3065,15 +3076,15 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3087,7 +3098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>381</v>
       </c>
@@ -3102,7 +3113,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>383</v>
       </c>
@@ -3117,7 +3128,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>385</v>
       </c>
@@ -3132,7 +3143,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>386</v>
       </c>
@@ -3147,7 +3158,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -3162,7 +3173,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>388</v>
       </c>
@@ -3177,7 +3188,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>303</v>
       </c>
@@ -3192,7 +3203,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>391</v>
       </c>
@@ -3207,7 +3218,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>393</v>
       </c>
@@ -3222,7 +3233,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>395</v>
       </c>
@@ -3237,7 +3248,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>397</v>
       </c>
@@ -3252,7 +3263,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>398</v>
       </c>
@@ -3267,12 +3278,12 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>73</v>
@@ -3282,7 +3293,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>400</v>
       </c>
@@ -3297,7 +3308,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>402</v>
       </c>
@@ -3312,12 +3323,12 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>73</v>
@@ -3327,7 +3338,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>198</v>
       </c>
@@ -3342,7 +3353,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>406</v>
       </c>
@@ -3357,7 +3368,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>256</v>
       </c>
@@ -3372,7 +3383,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>409</v>
       </c>
@@ -3387,7 +3398,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>411</v>
       </c>
@@ -3402,12 +3413,12 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>792</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>73</v>
@@ -3417,7 +3428,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>197</v>
       </c>
@@ -3432,7 +3443,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -3464,22 +3475,22 @@
       <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3553,7 +3564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="17.25" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3568,7 +3579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>254</v>
       </c>
@@ -3576,7 +3587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="17.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>268</v>
       </c>
@@ -3584,7 +3595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="17.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -3595,7 +3606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>272</v>
       </c>
@@ -3603,7 +3614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>187</v>
       </c>
@@ -3611,7 +3622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -3619,10 +3630,10 @@
         <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -3630,7 +3641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -3638,7 +3649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
@@ -3646,7 +3657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>273</v>
       </c>
@@ -3654,7 +3665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>404</v>
       </c>
@@ -3665,7 +3676,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -3679,7 +3690,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>192</v>
       </c>
@@ -3693,7 +3704,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>191</v>
       </c>
@@ -3701,7 +3712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>287</v>
       </c>
@@ -3709,7 +3720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -3717,7 +3728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>294</v>
       </c>
@@ -3725,7 +3736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>297</v>
       </c>
@@ -3736,7 +3747,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
@@ -3744,28 +3755,28 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="17.25" customHeight="1">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="17.25" customHeight="1">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="17.25" customHeight="1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="17.25" customHeight="1">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="20:23" ht="17.25" customHeight="1">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="20:23" ht="17.25" customHeight="1">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
+  <sortState ref="A2:A21">
     <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3778,19 +3789,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3807,7 +3818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="90.75" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>418</v>
       </c>
@@ -3821,10 +3832,10 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -3834,21 +3845,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3868,52 +3880,55 @@
         <v>423</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="135">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3932,14 +3947,14 @@
       <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
+      <c r="G2" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
@@ -3977,8 +3992,11 @@
       <c r="U2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -3997,9 +4015,6 @@
       <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
       <c r="H3" t="s">
         <v>73</v>
       </c>
@@ -4042,8 +4057,11 @@
       <c r="U3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -4062,9 +4080,6 @@
       <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
       <c r="H4" t="s">
         <v>73</v>
       </c>
@@ -4107,8 +4122,11 @@
       <c r="U4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4127,9 +4145,6 @@
       <c r="F5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
       <c r="H5" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4187,11 @@
       <c r="U5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4192,11 +4210,8 @@
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>32</v>
@@ -4237,8 +4252,11 @@
       <c r="U6" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4257,9 +4275,6 @@
       <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
@@ -4302,8 +4317,11 @@
       <c r="U7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4322,9 +4340,6 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
@@ -4367,8 +4382,11 @@
       <c r="U8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4387,9 +4405,6 @@
       <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
       <c r="H9" t="s">
         <v>73</v>
       </c>
@@ -4432,8 +4447,11 @@
       <c r="U9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -4452,9 +4470,6 @@
       <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
       <c r="H10" t="s">
         <v>32</v>
       </c>
@@ -4495,6 +4510,9 @@
         <v>32</v>
       </c>
       <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4514,34 +4532,34 @@
       <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" customWidth="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -4585,19 +4603,19 @@
         <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>51</v>
@@ -4627,7 +4645,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="15.75" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4644,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>57</v>
@@ -4656,7 +4674,7 @@
         <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>57</v>
@@ -4671,10 +4689,10 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4691,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>57</v>
@@ -4703,7 +4721,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>57</v>
@@ -4715,10 +4733,10 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4735,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>57</v>
@@ -4747,7 +4765,7 @@
         <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>57</v>
@@ -4766,10 +4784,10 @@
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="29.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4786,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>57</v>
@@ -4798,7 +4816,7 @@
         <v>95</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>57</v>
@@ -4810,19 +4828,19 @@
         <v>96</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z5" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AB5" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4839,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>57</v>
@@ -4851,7 +4869,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>57</v>
@@ -4866,10 +4884,10 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4898,7 +4916,7 @@
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -4914,10 +4932,10 @@
       </c>
       <c r="AA7" s="12"/>
       <c r="AB7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4946,7 +4964,7 @@
         <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>57</v>
@@ -4962,10 +4980,10 @@
       </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4994,7 +5012,7 @@
         <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>57</v>
@@ -5006,10 +5024,10 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="29.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5038,7 +5056,7 @@
         <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>57</v>
@@ -5055,16 +5073,16 @@
         <v>77</v>
       </c>
       <c r="Z10" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA10" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="AA10" s="12" t="s">
+      <c r="AB10" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5093,7 +5111,7 @@
         <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>57</v>
@@ -5109,10 +5127,10 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5141,7 +5159,7 @@
         <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>57</v>
@@ -5154,10 +5172,10 @@
       </c>
       <c r="AA12" s="12"/>
       <c r="AB12" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5186,7 +5204,7 @@
         <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>57</v>
@@ -5201,16 +5219,16 @@
         <v>147</v>
       </c>
       <c r="Z13" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA13" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="AA13" s="12" t="s">
+      <c r="AB13" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5239,7 +5257,7 @@
         <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>57</v>
@@ -5257,10 +5275,10 @@
         <v>178</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5289,7 +5307,7 @@
         <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>57</v>
@@ -5304,10 +5322,10 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5336,7 +5354,7 @@
         <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>57</v>
@@ -5355,10 +5373,10 @@
       </c>
       <c r="AA16" s="12"/>
       <c r="AB16" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="29.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5387,7 +5405,7 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>57</v>
@@ -5402,13 +5420,13 @@
         <v>166</v>
       </c>
       <c r="AA17" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5437,7 +5455,7 @@
         <v>95</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>57</v>
@@ -5452,16 +5470,16 @@
         <v>97</v>
       </c>
       <c r="Z18" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA18" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="AA18" s="12" t="s">
+      <c r="AB18" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5490,7 +5508,7 @@
         <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>57</v>
@@ -5505,10 +5523,10 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5537,7 +5555,7 @@
         <v>58</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>57</v>
@@ -5550,10 +5568,10 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5582,7 +5600,7 @@
         <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>57</v>
@@ -5597,10 +5615,10 @@
         <v>374</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5629,7 +5647,7 @@
         <v>83</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>57</v>
@@ -5645,10 +5663,10 @@
       </c>
       <c r="Z22"/>
       <c r="AB22" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5687,10 +5705,10 @@
       </c>
       <c r="Y23"/>
       <c r="AB23" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5719,7 +5737,7 @@
         <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>57</v>
@@ -5733,10 +5751,10 @@
       <c r="Y24"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5775,10 +5793,10 @@
       </c>
       <c r="AA25" s="12"/>
       <c r="AB25" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5807,7 +5825,7 @@
         <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>57</v>
@@ -5823,13 +5841,13 @@
         <v>165</v>
       </c>
       <c r="AA26" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB26" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5858,7 +5876,7 @@
         <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>57</v>
@@ -5877,13 +5895,13 @@
         <v>181</v>
       </c>
       <c r="AA27" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB27" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="AB27" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5900,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G28" t="s">
         <v>57</v>
@@ -5921,10 +5939,10 @@
         <v>57</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5941,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G29" t="s">
         <v>60</v>
@@ -5953,7 +5971,7 @@
         <v>75</v>
       </c>
       <c r="J29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>57</v>
@@ -5963,10 +5981,10 @@
       </c>
       <c r="X29"/>
       <c r="AB29" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5983,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G30" t="s">
         <v>57</v>
@@ -5995,7 +6013,7 @@
         <v>66</v>
       </c>
       <c r="J30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>57</v>
@@ -6010,10 +6028,10 @@
         <v>72</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6030,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G31" t="s">
         <v>57</v>
@@ -6042,7 +6060,7 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>57</v>
@@ -6054,10 +6072,10 @@
         <v>64</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6074,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>57</v>
@@ -6086,7 +6104,7 @@
         <v>66</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>57</v>
@@ -6111,10 +6129,10 @@
       </c>
       <c r="AA32" s="2"/>
       <c r="AB32" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6131,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>57</v>
@@ -6143,7 +6161,7 @@
         <v>62</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>57</v>
@@ -6153,10 +6171,10 @@
       </c>
       <c r="AA33" s="2"/>
       <c r="AB33" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6173,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>57</v>
@@ -6185,7 +6203,7 @@
         <v>58</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>57</v>
@@ -6195,10 +6213,10 @@
       </c>
       <c r="AA34" s="2"/>
       <c r="AB34" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6227,7 +6245,7 @@
         <v>83</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>57</v>
@@ -6243,10 +6261,10 @@
       </c>
       <c r="AA35" s="12"/>
       <c r="AB35" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" s="1" customFormat="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6275,7 +6293,7 @@
         <v>58</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>57</v>
@@ -6287,10 +6305,10 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="1" customFormat="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6319,7 +6337,7 @@
         <v>95</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>57</v>
@@ -6331,19 +6349,19 @@
         <v>96</v>
       </c>
       <c r="Y37" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z37" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="Z37" s="5" t="s">
+      <c r="AA37" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="AA37" s="12" t="s">
+      <c r="AB37" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="AB37" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:28" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6372,7 +6390,7 @@
         <v>58</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>57</v>
@@ -6387,10 +6405,10 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6419,7 +6437,7 @@
         <v>83</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>57</v>
@@ -6438,10 +6456,10 @@
       </c>
       <c r="AA39" s="12"/>
       <c r="AB39" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="60">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6470,7 +6488,7 @@
         <v>58</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>57</v>
@@ -6488,10 +6506,10 @@
         <v>320</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="1" customFormat="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6520,7 +6538,7 @@
         <v>58</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>57</v>
@@ -6535,10 +6553,10 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="43.5">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6567,7 +6585,7 @@
         <v>95</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>57</v>
@@ -6579,19 +6597,19 @@
         <v>96</v>
       </c>
       <c r="Y42" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z42" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="Z42" s="5" t="s">
+      <c r="AA42" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="AA42" s="12" t="s">
+      <c r="AB42" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="AB42" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:28" s="1" customFormat="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6620,7 +6638,7 @@
         <v>58</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>57</v>
@@ -6635,10 +6653,10 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
       <c r="AB43" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6667,7 +6685,7 @@
         <v>58</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>57</v>
@@ -6679,10 +6697,10 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6711,7 +6729,7 @@
         <v>83</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>57</v>
@@ -6730,10 +6748,10 @@
       </c>
       <c r="AA45" s="12"/>
       <c r="AB45" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6781,10 +6799,10 @@
       </c>
       <c r="AA46" s="12"/>
       <c r="AB46" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="1" customFormat="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6801,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>57</v>
@@ -6813,7 +6831,7 @@
         <v>58</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>57</v>
@@ -6828,10 +6846,10 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
       <c r="AB47" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" s="1" customFormat="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6848,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>57</v>
@@ -6860,7 +6878,7 @@
         <v>95</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>57</v>
@@ -6872,19 +6890,19 @@
         <v>96</v>
       </c>
       <c r="Y48" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z48" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="Z48" s="5" t="s">
+      <c r="AA48" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="AA48" s="12" t="s">
+      <c r="AB48" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="AB48" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:28" s="1" customFormat="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6901,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>57</v>
@@ -6913,7 +6931,7 @@
         <v>58</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>57</v>
@@ -6928,10 +6946,10 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
       <c r="AB49" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="1" customFormat="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6948,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>57</v>
@@ -6960,7 +6978,7 @@
         <v>58</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>57</v>
@@ -6975,10 +6993,10 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
       <c r="AB50" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6995,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>57</v>
@@ -7007,7 +7025,7 @@
         <v>83</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>57</v>
@@ -7026,10 +7044,10 @@
       </c>
       <c r="AA51" s="12"/>
       <c r="AB51" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" s="1" customFormat="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7058,7 +7076,7 @@
         <v>58</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>57</v>
@@ -7073,10 +7091,10 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
       <c r="AB52" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" s="1" customFormat="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7105,7 +7123,7 @@
         <v>95</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>57</v>
@@ -7117,19 +7135,19 @@
         <v>96</v>
       </c>
       <c r="Y53" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z53" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="Z53" s="5" t="s">
+      <c r="AA53" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="AA53" s="12" t="s">
+      <c r="AB53" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="AB53" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7137,7 +7155,7 @@
         <v>188</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>32</v>
@@ -7158,7 +7176,7 @@
         <v>83</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>57</v>
@@ -7177,10 +7195,10 @@
       </c>
       <c r="AA54" s="12"/>
       <c r="AB54" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="1" customFormat="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7209,7 +7227,7 @@
         <v>58</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>57</v>
@@ -7224,10 +7242,10 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
       <c r="AB55" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="46" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="43.5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7256,7 +7274,7 @@
         <v>95</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>57</v>
@@ -7278,13 +7296,13 @@
         <v>376</v>
       </c>
       <c r="AA56" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB56" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AB56" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7313,7 +7331,7 @@
         <v>83</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>57</v>
@@ -7332,10 +7350,10 @@
       </c>
       <c r="AA57" s="12"/>
       <c r="AB57" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="1" customFormat="1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7364,7 +7382,7 @@
         <v>58</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>57</v>
@@ -7379,10 +7397,10 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
       <c r="AB58" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="46" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="43.5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7411,7 +7429,7 @@
         <v>95</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>57</v>
@@ -7432,13 +7450,13 @@
         <v>377</v>
       </c>
       <c r="AA59" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB59" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="AB59" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7467,7 +7485,7 @@
         <v>83</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>57</v>
@@ -7486,10 +7504,10 @@
       </c>
       <c r="AA60" s="12"/>
       <c r="AB60" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="1" customFormat="1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7518,7 +7536,7 @@
         <v>58</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>57</v>
@@ -7533,10 +7551,10 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
       <c r="AB61" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="1" customFormat="1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7565,7 +7583,7 @@
         <v>95</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>57</v>
@@ -7577,19 +7595,19 @@
         <v>96</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Z62" s="5" t="s">
         <v>227</v>
       </c>
       <c r="AA62" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB62" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AB62" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>83</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>57</v>
@@ -7637,10 +7655,10 @@
       </c>
       <c r="AA63" s="12"/>
       <c r="AB63" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="1" customFormat="1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7669,7 +7687,7 @@
         <v>58</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>57</v>
@@ -7684,10 +7702,10 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
       <c r="AB64" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" s="1" customFormat="1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7704,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>57</v>
@@ -7716,7 +7734,7 @@
         <v>58</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>57</v>
@@ -7731,10 +7749,10 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
       <c r="AB65" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" s="1" customFormat="1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7751,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>57</v>
@@ -7763,7 +7781,7 @@
         <v>58</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>57</v>
@@ -7778,10 +7796,10 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" s="1" customFormat="1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7798,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>57</v>
@@ -7810,7 +7828,7 @@
         <v>58</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>57</v>
@@ -7825,10 +7843,10 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
       <c r="AB67" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7845,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>57</v>
@@ -7857,7 +7875,7 @@
         <v>83</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>57</v>
@@ -7876,10 +7894,10 @@
       </c>
       <c r="AA68" s="12"/>
       <c r="AB68" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" s="1" customFormat="1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7896,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>57</v>
@@ -7908,7 +7926,7 @@
         <v>95</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>57</v>
@@ -7920,19 +7938,19 @@
         <v>96</v>
       </c>
       <c r="Y69" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z69" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="Z69" s="5" t="s">
+      <c r="AA69" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="AA69" s="12" t="s">
+      <c r="AB69" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AB69" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:28" s="1" customFormat="1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7961,7 +7979,7 @@
         <v>58</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>57</v>
@@ -7976,10 +7994,10 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
       <c r="AB70" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" s="1" customFormat="1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7996,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>57</v>
@@ -8008,7 +8026,7 @@
         <v>58</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>57</v>
@@ -8020,10 +8038,10 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
       <c r="AB71" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8052,7 +8070,7 @@
         <v>83</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>57</v>
@@ -8071,10 +8089,10 @@
       </c>
       <c r="AA72" s="12"/>
       <c r="AB72" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" s="1" customFormat="1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8103,7 +8121,7 @@
         <v>95</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>57</v>
@@ -8115,19 +8133,19 @@
         <v>96</v>
       </c>
       <c r="Y73" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="Z73" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="Z73" s="5" t="s">
+      <c r="AA73" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="AA73" s="12" t="s">
+      <c r="AB73" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="AB73" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:28" s="1" customFormat="1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8156,7 +8174,7 @@
         <v>58</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>57</v>
@@ -8171,10 +8189,10 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
       <c r="AB74" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="1" customFormat="1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8203,7 +8221,7 @@
         <v>95</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>57</v>
@@ -8215,19 +8233,19 @@
         <v>96</v>
       </c>
       <c r="Y75" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z75" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="Z75" s="5" t="s">
+      <c r="AA75" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="AA75" s="12" t="s">
+      <c r="AB75" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AB75" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:28" s="1" customFormat="1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8256,7 +8274,7 @@
         <v>58</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>57</v>
@@ -8271,10 +8289,10 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
       <c r="AB76" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" s="1" customFormat="1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8303,7 +8321,7 @@
         <v>95</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>57</v>
@@ -8315,19 +8333,19 @@
         <v>96</v>
       </c>
       <c r="Y77" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z77" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="Z77" s="5" t="s">
+      <c r="AA77" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="AA77" s="12" t="s">
+      <c r="AB77" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="AB77" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:28" s="1" customFormat="1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8356,7 +8374,7 @@
         <v>58</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>57</v>
@@ -8367,10 +8385,10 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
       <c r="AB78" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" ht="18" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="18">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8399,7 +8417,7 @@
         <v>66</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>57</v>
@@ -8414,13 +8432,13 @@
         <v>282</v>
       </c>
       <c r="AA79" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB79" t="s">
         <v>675</v>
       </c>
-      <c r="AB79" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:28" ht="18">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8449,7 +8467,7 @@
         <v>66</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>57</v>
@@ -8464,13 +8482,13 @@
         <v>283</v>
       </c>
       <c r="AA80" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB80" t="s">
         <v>678</v>
       </c>
-      <c r="AB80" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:28" ht="18">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8499,7 +8517,7 @@
         <v>66</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>57</v>
@@ -8514,13 +8532,13 @@
         <v>286</v>
       </c>
       <c r="AA81" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB81" t="s">
         <v>681</v>
       </c>
-      <c r="AB81" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:28" ht="18">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8549,7 +8567,7 @@
         <v>66</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>57</v>
@@ -8564,13 +8582,13 @@
         <v>285</v>
       </c>
       <c r="AA82" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB82" t="s">
         <v>684</v>
       </c>
-      <c r="AB82" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:28" ht="18">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8599,7 +8617,7 @@
         <v>66</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>57</v>
@@ -8614,13 +8632,13 @@
         <v>284</v>
       </c>
       <c r="AA83" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB83" t="s">
         <v>687</v>
       </c>
-      <c r="AB83" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:28" s="1" customFormat="1" ht="18">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8649,7 +8667,7 @@
         <v>66</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>57</v>
@@ -8664,13 +8682,13 @@
         <v>282</v>
       </c>
       <c r="AA84" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB84" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="AB84" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:28" s="1" customFormat="1" ht="29.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>66</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>57</v>
@@ -8714,13 +8732,13 @@
         <v>283</v>
       </c>
       <c r="AA85" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB85" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="AB85" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="18">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8737,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>57</v>
@@ -8749,7 +8767,7 @@
         <v>66</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>57</v>
@@ -8764,13 +8782,13 @@
         <v>286</v>
       </c>
       <c r="AA86" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="AB86" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="AB86" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="18">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8787,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>57</v>
@@ -8799,7 +8817,7 @@
         <v>66</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>57</v>
@@ -8814,13 +8832,13 @@
         <v>285</v>
       </c>
       <c r="AA87" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB87" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="AB87" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="18">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8837,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>57</v>
@@ -8849,7 +8867,7 @@
         <v>66</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>57</v>
@@ -8864,13 +8882,13 @@
         <v>284</v>
       </c>
       <c r="AA88" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB88" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="AB88" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8899,7 +8917,7 @@
         <v>66</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>57</v>
@@ -8917,13 +8935,13 @@
         <v>296</v>
       </c>
       <c r="AA89" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="AB89" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="AB89" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>58</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>57</v>
@@ -8967,13 +8985,13 @@
         <v>380</v>
       </c>
       <c r="AA90" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB90" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="AB90" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9002,7 +9020,7 @@
         <v>58</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>57</v>
@@ -9020,13 +9038,13 @@
         <v>379</v>
       </c>
       <c r="AA91" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="AB91" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="AB91" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:28" ht="38.1" customHeight="1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9055,7 +9073,7 @@
         <v>95</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>57</v>
@@ -9076,18 +9094,18 @@
         <v>378</v>
       </c>
       <c r="AA92" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB92" t="s">
         <v>715</v>
       </c>
-      <c r="AB92" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:28">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA34">
+  <sortState ref="A7:AA34">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9107,21 +9125,21 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -9153,7 +9171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9161,7 +9179,7 @@
         <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D2" t="s">
         <v>104</v>
@@ -9173,10 +9191,10 @@
         <v>105</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9184,7 +9202,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -9196,10 +9214,10 @@
         <v>107</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9207,7 +9225,7 @@
         <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
@@ -9219,10 +9237,10 @@
         <v>107</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9230,7 +9248,7 @@
         <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D5" t="s">
         <v>109</v>
@@ -9242,10 +9260,10 @@
         <v>105</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9271,10 +9289,10 @@
         <v>341</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9282,7 +9300,7 @@
         <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -9294,10 +9312,10 @@
         <v>111</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9305,7 +9323,7 @@
         <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D8" t="s">
         <v>113</v>
@@ -9317,10 +9335,10 @@
         <v>111</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9328,7 +9346,7 @@
         <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>
@@ -9341,10 +9359,10 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9352,7 +9370,7 @@
         <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
@@ -9366,10 +9384,10 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9377,7 +9395,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D11" t="s">
         <v>116</v>
@@ -9390,10 +9408,10 @@
       </c>
       <c r="H11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9401,7 +9419,7 @@
         <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D12" t="s">
         <v>99</v>
@@ -9413,10 +9431,10 @@
         <v>58</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9442,10 +9460,10 @@
         <v>342</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9453,7 +9471,7 @@
         <v>163</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D14" t="s">
         <v>119</v>
@@ -9465,10 +9483,10 @@
         <v>107</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9476,7 +9494,7 @@
         <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D15" t="s">
         <v>120</v>
@@ -9488,10 +9506,10 @@
         <v>105</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9517,10 +9535,10 @@
         <v>343</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9528,7 +9546,7 @@
         <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D17" t="s">
         <v>122</v>
@@ -9541,10 +9559,10 @@
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9570,10 +9588,10 @@
         <v>344</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9581,7 +9599,7 @@
         <v>163</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D19" t="s">
         <v>124</v>
@@ -9595,10 +9613,10 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9606,7 +9624,7 @@
         <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D20" t="s">
         <v>125</v>
@@ -9619,10 +9637,10 @@
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9630,7 +9648,7 @@
         <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D21" t="s">
         <v>127</v>
@@ -9642,10 +9660,10 @@
         <v>128</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9653,7 +9671,7 @@
         <v>164</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D22" t="s">
         <v>129</v>
@@ -9666,10 +9684,10 @@
       </c>
       <c r="H22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9677,7 +9695,7 @@
         <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
@@ -9691,10 +9709,10 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9702,7 +9720,7 @@
         <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D24" t="s">
         <v>133</v>
@@ -9716,10 +9734,10 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9727,7 +9745,7 @@
         <v>164</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D25" t="s">
         <v>134</v>
@@ -9741,10 +9759,10 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9752,7 +9770,7 @@
         <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D26" t="s">
         <v>135</v>
@@ -9764,10 +9782,10 @@
         <v>132</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9775,7 +9793,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D27" t="s">
         <v>136</v>
@@ -9787,10 +9805,10 @@
         <v>58</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9798,7 +9816,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D28" t="s">
         <v>137</v>
@@ -9810,10 +9828,10 @@
         <v>132</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9839,10 +9857,10 @@
         <v>185</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9868,10 +9886,10 @@
         <v>182</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9897,10 +9915,10 @@
         <v>184</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9926,10 +9944,10 @@
         <v>183</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9949,7 +9967,7 @@
         <v>111</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>161</v>
@@ -9961,7 +9979,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9990,7 +10008,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10019,7 +10037,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="1" customFormat="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10048,7 +10066,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10077,7 +10095,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10103,10 +10121,10 @@
         <v>170</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -10132,10 +10150,10 @@
         <v>169</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -10161,10 +10179,10 @@
         <v>193</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10193,10 +10211,10 @@
         <v>205</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -10222,10 +10240,10 @@
         <v>207</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -10254,10 +10272,10 @@
         <v>206</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -10283,10 +10301,10 @@
         <v>235</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -10312,10 +10330,10 @@
         <v>193</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -10341,10 +10359,10 @@
         <v>212</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -10370,10 +10388,10 @@
         <v>207</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -10399,10 +10417,10 @@
         <v>213</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -10428,10 +10446,10 @@
         <v>235</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -10457,10 +10475,10 @@
         <v>352</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -10471,7 +10489,7 @@
         <v>409</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>73</v>
@@ -10483,13 +10501,13 @@
         <v>218</v>
       </c>
       <c r="I51" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -10512,13 +10530,13 @@
         <v>194</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="1" customFormat="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -10541,13 +10559,13 @@
         <v>247</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="1" customFormat="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -10570,13 +10588,13 @@
         <v>196</v>
       </c>
       <c r="I54" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -10599,13 +10617,13 @@
         <v>248</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" s="1" customFormat="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -10631,10 +10649,10 @@
         <v>214</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="1" customFormat="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -10660,10 +10678,10 @@
         <v>229</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -10689,10 +10707,10 @@
         <v>244</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -10700,7 +10718,7 @@
         <v>191</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>257</v>
@@ -10724,7 +10742,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="1" customFormat="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -10732,7 +10750,7 @@
         <v>191</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>150</v>
@@ -10753,10 +10771,10 @@
         <v>231</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -10764,7 +10782,7 @@
         <v>191</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>152</v>
@@ -10782,10 +10800,10 @@
         <v>371</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -10793,7 +10811,7 @@
         <v>191</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>203</v>
@@ -10814,10 +10832,10 @@
         <v>232</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -10825,7 +10843,7 @@
         <v>191</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>233</v>
@@ -10843,10 +10861,10 @@
         <v>237</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -10854,7 +10872,7 @@
         <v>356</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>121</v>
@@ -10872,10 +10890,10 @@
         <v>216</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1">
       <c r="A65" s="1">
         <v>58</v>
       </c>
@@ -10904,10 +10922,10 @@
         <v>263</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1">
       <c r="A66" s="1">
         <v>59</v>
       </c>
@@ -10933,13 +10951,13 @@
         <v>261</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" s="1" customFormat="1">
       <c r="A67" s="1">
         <v>61</v>
       </c>
@@ -10971,7 +10989,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" s="1" customFormat="1">
       <c r="A68" s="1">
         <v>62</v>
       </c>
@@ -10997,13 +11015,13 @@
         <v>260</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" s="1" customFormat="1">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -11035,7 +11053,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -11064,7 +11082,7 @@
         <v>304</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -11073,7 +11091,7 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="1" customFormat="1">
       <c r="A71" s="1">
         <v>58</v>
       </c>
@@ -11102,10 +11120,10 @@
         <v>311</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="1" customFormat="1">
       <c r="A72" s="1">
         <v>59</v>
       </c>
@@ -11134,10 +11152,10 @@
         <v>310</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="1" customFormat="1">
       <c r="A73" s="1">
         <v>60</v>
       </c>
@@ -11166,10 +11184,10 @@
         <v>313</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="1" customFormat="1">
       <c r="A74" s="1">
         <v>61</v>
       </c>
@@ -11198,10 +11216,10 @@
         <v>315</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="1" customFormat="1">
       <c r="A75" s="1">
         <v>62</v>
       </c>
@@ -11227,10 +11245,10 @@
         <v>314</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="1" customFormat="1">
       <c r="A76" s="1">
         <v>39</v>
       </c>
@@ -11256,10 +11274,10 @@
         <v>326</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="1" customFormat="1">
       <c r="A77" s="1">
         <v>43</v>
       </c>
@@ -11267,7 +11285,7 @@
         <v>323</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>322</v>
@@ -11283,10 +11301,10 @@
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="1" customFormat="1">
       <c r="A78" s="1">
         <v>40</v>
       </c>
@@ -11318,7 +11336,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A79" s="1">
         <v>42</v>
       </c>
@@ -11350,7 +11368,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="1" customFormat="1">
       <c r="A80" s="1">
         <v>41</v>
       </c>
@@ -11379,7 +11397,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="1" customFormat="1">
       <c r="A81" s="1">
         <v>43</v>
       </c>
@@ -11405,10 +11423,10 @@
         <v>441</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="1" customFormat="1">
       <c r="A82" s="1">
         <v>41</v>
       </c>
